--- a/FPP/data/结果比较.xlsx
+++ b/FPP/data/结果比较.xlsx
@@ -1,491 +1,752 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study_data\graduate_content\Futures\FPP\FPP\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740C6C1D-2316-411A-8BA0-3D8E859F5FF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4CCD166-FC3C-474D-8607-627B9F5CFDC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="360" windowWidth="23256" windowHeight="12096" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="360" windowWidth="23256" windowHeight="12096" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="原文" sheetId="1" r:id="rId1"/>
     <sheet name="百度" sheetId="2" r:id="rId2"/>
+    <sheet name="LTP" sheetId="6" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="239">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>产品</t>
+  </si>
   <si>
     <t>相关因素</t>
+  </si>
+  <si>
+    <t>语料原文</t>
+  </si>
+  <si>
+    <t>分词结果</t>
+  </si>
+  <si>
+    <t>词性结果</t>
+  </si>
+  <si>
+    <t>实体识别</t>
+  </si>
+  <si>
+    <t>其他名词</t>
+  </si>
+  <si>
+    <t>玉米</t>
+  </si>
+  <si>
+    <t>相关介绍</t>
+  </si>
+  <si>
+    <t>玉米为禾本科，属一年生草本植物。在全球三大谷物中，玉米总产量和平均单产均居世界首位。中国的玉米栽培面积居世界第一位，总产量均居世界第二位。在世界谷类作物中，玉米的种植范围广。玉米的播种面积以北美最多，其次为亚洲、拉丁美洲、欧洲等。玉米占世界粗粮产量的65%以上，占我国粗粮产量的90%。玉米籽粒中含有70-75%的淀粉，10%左右的蛋白质，4-59%的脂肪，2%左右的多种维生素。以玉米为原料制成的加工产品有3000种以上。玉米是制造复合饲料的最主要原料，一般占65%-70%玉米也是世界上最重要的食粮之一，特别是一些非洲、拉丁美洲国家。现今全世界约有三分之一人口以玉米为主要粮食。</t>
+  </si>
+  <si>
+    <t>{玉米,为,禾本科,，,属,一年,生,草本植物,。,在,全球,三大,谷物,中,，,玉米,总产量,和,平均,单产,均,居,世界,首位,。,中国,的,玉米,栽培,面积,居,世界,第一位,，,总产量,均,居,世界,第二位,。,在,世界,谷类,作物,中,，,玉米,的,种植,范围,广,。,玉米,的,播种,面积,以,北美,最多,，,其次,为,亚洲,、,拉丁美洲,、,欧洲,等,。,玉米,占,世界,粗粮,产量,的,65%,以上,，,占,我,国,粗粮,产量,的,90%,。,玉米,籽粒,中,含有,70,-,75%,的,淀粉,，,10%,左右,的,蛋白质,，,4,-,59%,的,脂肪,，,2%,左右,的,多种,维生素,。,以,玉米,为,原料,制成,的,加工,产品,有,3000种,以上,。,玉米,是,制造,复合,饲料,的,最,主要,原料,，,一般,占,65%,-,70%,玉米,也是,世界上,最,重要,的,食粮,之,一,，,特别,是,一些,非洲,、,拉丁美洲,国家,。,现今,全世界,约,有,三分之一,人口,以,玉米,为,主要,粮食,。}</t>
+  </si>
+  <si>
+    <t>{n,v,n,w,v,",n,n,w,p,n,m,n,f,w,n,n,c,a,n,d,v,n,n,w,",u,n,vn,n,v,n,m,w,n,d,v,n,m,w,p,n,n,n,f,w,n,u,vn,n,a,w,n,u,vn,n,p,ns,a,w,r,v,",w,",w,",u,w,n,v,n,n,n,u,m,f,w,v,r,n,n,n,u,m,w,n,n,f,v,m,w,m,u,n,w,m,f,u,nz,w,m,w,m,u,n,w,m,f,u,m,n,w,p,n,v,n,v,u,vn,n,v,m,f,w,n,v,v,vn,n,u,d,a,n,w,ad,v,m,w,m,n,v,s,d,a,u,n,u,m,w,d,v,m,",w,",n,w,t,n,d,v,m,n,p,n,v,a,n,w}</t>
+  </si>
+  <si>
+    <t>{一年,中国,亚洲,拉丁美洲,欧洲,非洲,拉丁美洲}</t>
+  </si>
+  <si>
+    <t>{蛋白质}</t>
+  </si>
+  <si>
+    <t>全球生产情况</t>
+  </si>
+  <si>
+    <t>全世界每年种植玉米1.91多亿公顷，总产量11亿多吨，约占全球粮食总量的309%-35%，主要分布国家有美国、中国、巴西、阿根廷，这四个国家的总产量约占全球总产量的7096左右，其中美国约占35%，中国占23%左右。</t>
+  </si>
+  <si>
+    <t>{全世界,每年,种植,玉米,1.91多亿公顷,，,总产量,11亿多吨,，,约,占,全球,粮食,总量,的,309%,-,35%,，,主要,分布,国家,有,美国,、,中国,、,巴西,、,阿根廷,，,这,四个,国家,的,总产量,约,占,全球,总产量,的,7096,左右,，,其中,美国,约,占,35%,，,中国,占,23%,左右,。}</t>
+  </si>
+  <si>
+    <t>{n,",v,n,m,w,n,m,w,d,v,n,n,n,u,m,w,m,w,ad,v,n,v,",w,",w,",w,",w,r,m,n,u,n,d,v,n,n,u,m,f,w,r,",d,v,m,w,",v,m,f,w}</t>
+  </si>
+  <si>
+    <t>{每年,美国,中国,巴西,阿根廷,美国,中国}</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>全球进出口情况</t>
+  </si>
+  <si>
+    <t>在过去的几年中，全球玉米的出口总量保持在1.2-1.7亿吨，并有逐年上升趋势。从出口国看，美国、阿根廷和巴西等玉米主产国家也是玉米出口大国。美国年出口玉米在5000-6000万吨左右，占全球玉米贸易总量的30%-40%6，并呈现逐年增加态势。巴西和阿根廷年均出口约为2000-3000万吨，并有逐年上升趋势。中国虽然是世界第二大玉米主产国，但中国同样是玉米消费大国，因此我国出口量极少。玉米的主要进口国集中在亚洲及欧盟地区，其中日本年均进口量约为1400-1700万吨，主要来自美国；韩国年进口量约为700-1000万吨，主要来自美国。近年来墨西哥玉米进口数量逐年攀升，维持在800-100吨水平，欧盟在2015/16年度、2016/17年度、2017/18年度至2018/9年度进口玉米数量显著增长，目前年进口量超过2000万吨，埃及玉米年进口整体呈增长趋势，进口量在700-1000万吨，中国台湾省年进口量400-500万吨，加拿大100-200万吨。</t>
+  </si>
+  <si>
+    <t>{在,过去,的,几,年中,，,全球,玉米,的,出口,总量,保持,在,1.2,-,1.7亿吨,，,并,有,逐年,上升,趋势,。,从,出口,国,看,，,美国,、,阿根廷,和,巴西,等,玉米,主产,国家,也是,玉米,出口,大国,。,美国,年,出口,玉米,在,5000,-,6000万吨,左右,，,占,全球,玉米,贸易,总量,的,30%,-,40%6,，,并,呈现,逐年,增加,态势,。,巴西,和,阿根廷,年均,出口,约,为,2000,-,3000万吨,，,并,有,逐年,上升,趋势,。,中国,虽然,是,世界,第二,大玉米,主产,国,，,但,中国,同样,是,玉米,消费,大国,，,因此,我,国,出口,量,极少,。,玉米,的,主要,进口,国,集中,在,亚洲,及,欧盟,地区,，,其中,日本,年均,进口,量,约,为,1400,-,1700万吨,，,主要,来自,美国,；,韩国,年,进口,量,约,为,700,-,1000万吨,，,主要,来自,美国,。,近年,来,墨西哥,玉米,进口,数量,逐年,攀升,，,维持,在,800,-,100吨,水平,，,欧盟,在,2015,/,16,年度,、,2016,/,17,年度,、,2017,/,18,年度,至,2018,/,9,年度,进口,玉米,数量,显著,增长,，,目前,年,进口,量,超过,2000万吨,，,埃及,玉米,年,进口,整体,呈,增长,趋势,，,进口,量,在,700,-,1000万吨,，,中国,台湾省,年,进口,量,400,-,500万吨,，,加拿大,100,-,200万吨,。}</t>
+  </si>
+  <si>
+    <t>{p,t,u,m,",w,n,n,u,vn,n,v,p,m,w,m,w,c,v,d,v,n,w,p,vn,n,v,w,",w,",c,",u,n,vn,n,v,n,vn,n,w,",n,v,n,v,m,w,m,f,w,v,n,n,vn,n,u,m,w,m,w,c,v,d,v,n,w,",c,",vn,vn,d,v,m,w,m,w,c,v,d,v,n,w,",c,v,n,m,",v,n,w,c,",d,v,n,v,n,w,c,r,n,vn,n,a,w,n,u,a,vn,n,v,p,",c,",n,w,f,",n,vn,n,d,v,m,w,m,w,ad,v,",w,",n,vn,n,d,v,m,w,m,w,ad,v,",w,",v,ns,n,vn,n,d,v,w,v,p,m,w,m,n,w,",p,m,w,q,n,w,m,w,m,n,w,m,w,m,n,v,m,w,q,n,vn,n,n,ad,v,w,t,q,vn,n,v,m,w,",n,q,vn,n,v,vn,n,w,vn,n,v,m,w,m,w,",",q,vn,n,m,w,m,w,",m,w,m,w}</t>
+  </si>
+  <si>
+    <t>{年中,美国,阿根廷,巴西,美国,巴西,阿根廷,中国,大玉米,中国,亚洲,欧盟,日本,美国,韩国,美国,近年,欧盟,埃及,中国,台湾省,加拿大}</t>
+  </si>
+  <si>
+    <t>全球消费情况</t>
+  </si>
+  <si>
+    <t>全球每年玉米总消费量从1999/2000年度开始就保持在6亿吨以上，2009/10年度以来消费量超过8亿吨，2016/17年度消费量达到10亿吨以上。玉米的消费主要有四方面，即食用、饲用、工业加工及种用。玉米是“饲料之王”，2010/11年度以来全球词用玉米消费超过5吨，2015/16年饲用玉米消费超过6亿吨，2018/19年超过7亿吨，约占玉米消费总量的60%，未来随着全球玉米加工产业的发展，对玉米消费的需求还会增加，产需之间的矛盾会更加突出。</t>
+  </si>
+  <si>
+    <t>{全球,每年,玉米,总,消费量,从,1999,/,2000年度,开始,就,保持,在,6亿吨,以上,，,2009,/,10,年度,以来,消费量,超过,8亿吨,，,2016,/,17,年度,消费量,达到,10亿吨,以上,。,玉米,的,消费,主要,有,四方面,，,即,食用,、,饲用,、,工业,加工,及,种用,。,玉米,是,“,饲料,之,王,”,，,2010,/,11,年度,以来,全球,词,用,玉米,消费,超过,5吨,，,2015,/,16年,饲用,玉米,消费,超过,6亿吨,，,2018,/,19年,超过,7亿吨,，,约,占,玉米,消费,总量,的,60%,，,未来,随着,全球,玉米,加工,产业,的,发展,，,对,玉米,消费,的,需求,还会,增加,，,产,需,之间,的,矛盾,会,更加,突出,。}</t>
+  </si>
+  <si>
+    <t>{n,",n,a,n,p,m,w,",v,d,v,p,m,f,w,m,w,m,n,f,n,v,m,w,m,w,m,n,n,v,m,f,w,n,u,vn,ad,v,m,w,v,vn,w,vn,w,n,vn,c,vn,w,n,v,w,n,u,n,w,w,m,w,q,n,f,n,n,p,n,vn,v,m,w,m,w,",vn,n,vn,v,m,w,m,w,",v,m,w,d,v,n,vn,n,u,m,w,t,p,n,n,vn,n,u,vn,w,p,n,vn,u,n,v,v,w,v,v,f,u,n,v,d,a,w}</t>
+  </si>
+  <si>
+    <t>{每年,2000年度,16年,19年}</t>
+  </si>
+  <si>
+    <t>国内生产情况</t>
+  </si>
+  <si>
+    <t>我国是玉米生产大国，总产量居世界第二，玉米生产区域分布广泛，北方的辽、吉、黑、蒙、晋、冀、鲁、豫8省区生产了全国70%以上的玉米，尤其是东北地区（含内蒙），常年玉米播种面积为1000-1400万公顷，正常年份玉米产量为9000-12000万吨左右，占全国玉米总产量的40%左右，是我国最大的玉米商品粮产地。华北黄淮地区（包括京、津、冀、鲁、豫、苏和皖）常年玉米播种面积为1000-1100万公顷，正常年份玉米产量为5000-7000万吨左右，产量约占全国总产量的30%，但商品率低于东北地区。</t>
+  </si>
+  <si>
+    <t>{我,国,是,玉米,生产,大国,，,总产量,居,世界,第二,，,玉米,生产,区域,分布,广泛,，,北方,的,辽,、,吉,、,黑,、,蒙,、,晋,、,冀,、,鲁,、,豫,8,省区,生产,了,全国,70%,以上,的,玉米,，,尤其,是,东北地区,（,含,内蒙,）,，,常年,玉米,播种,面积,为,1000,-,1400万公顷,，,正常,年份,玉米,产量,为,9000,-,12000万吨,左右,，,占,全国,玉米,总产量,的,40%,左右,，,是,我,国,最大,的,玉米,商品,粮,产地,。,华北,黄淮地区,（,包括,京,、,津,、,冀,、,鲁,、,豫,、,苏和皖,）,常年,玉米,播种,面积,为,1000,-,1100万公顷,，,正常,年份,玉米,产量,为,5000,-,7000万吨,左右,，,产量,约,占,全国,总产量,的,30%,，,但,商品率,低于,东北地区,。}</t>
+  </si>
+  <si>
+    <t>{r,n,v,n,vn,n,w,n,v,n,m,w,n,vn,n,vn,a,w,s,u,ns,w,a,w,an,w,ns,w,",w,",w,ns,w,ns,m,n,v,u,n,m,f,u,n,w,d,v,",w,v,",w,w,d,n,v,n,v,m,w,m,w,a,n,n,n,v,m,w,m,f,w,v,n,n,n,u,m,f,w,v,r,n,a,u,n,n,n,n,w,",",w,v,ns,w,",w,",w,ns,w,",w,",w,n,n,v,n,v,m,w,m,w,a,n,n,n,v,m,w,m,f,w,n,d,v,n,n,u,m,w,c,n,v,",w}</t>
+  </si>
+  <si>
+    <t>{晋,冀,东北地区,内蒙,华北,黄淮地区,津,冀,豫,苏和皖,东北地区}</t>
+  </si>
+  <si>
+    <t>国内消费情况</t>
+  </si>
+  <si>
+    <t>我国作为玉米消费大国，玉米消费主要用于饲料生产和工业加工消费，者占比达90%以上。饲用玉米消费整体维持逐年增长的趋势，到2018/19年度饲用玉米消费增加至近2亿吨，而随着城乡居民生活水平的提高，包括玉米淀粉、造纸、酿造、医药、燃料乙醇等玉米深加工得到了快速发展，且深加工产业玉米消费量逐年增加。我国调减了部分非优势地区玉米种植面积，玉米产量于2017/18年以来出现了小幅减少。与消费量增长相匹配。2007年以来，国内玉米出口量大幅下降，2009年以来中国玉米进口量迅速增加，中国已经由玉米净出口国转变成为净进口国。</t>
+  </si>
+  <si>
+    <t>{我,国,作为,玉米,消费,大国,，,玉米,消费,主要,用于,饲料,生产,和,工业,加工,消费,，,者,占,比达,90%,以上,。,饲用,玉米,消费,整体,维持,逐年,增长,的,趋势,，,到,2018,/,19,年度,饲用,玉米,消费,增加,至,近,2亿吨,，,而,随着,城乡,居民,生活水平,的,提高,，,包括,玉米淀粉,、,造纸,、,酿造,、,医药,、,燃料,乙醇,等,玉米,深加工,得到,了,快速,发展,，,且,深加工,产业,玉米,消费量,逐年,增加,。,我,国,调减,了,部分,非优势地区,玉米,种植,面积,，,玉米,产量,于,2017,/,18年以来,出现,了,小幅,减少,。,与,消费量,增长,相匹配,。,2007年以来,，,国内,玉米,出口,量,大幅,下降,，,2009年以来,中国,玉米,进口,量,迅速,增加,，,中国,已经,由,玉米,净,出口,国,转变,成为,净,进口,国,。}</t>
+  </si>
+  <si>
+    <t>{r,n,p,n,vn,n,w,n,vn,ad,v,n,vn,c,n,vn,vn,w,n,v,v,m,f,w,vn,n,vn,n,v,d,v,u,n,w,p,m,w,q,n,vn,n,vn,v,v,vd,m,w,c,p,n,n,n,u,vn,w,v,nz,w,vn,w,vn,w,n,w,n,n,u,n,vn,v,u,a,vn,w,c,vn,n,n,n,d,v,w,r,n,v,u,n,n,n,vn,n,w,n,n,p,m,w,",v,u,d,v,w,p,n,v,v,w,",w,s,n,vn,n,d,v,w,",",n,vn,n,ad,v,w,",d,p,n,a,vn,n,v,v,a,vn,n,w}</t>
+  </si>
+  <si>
+    <t>{18年以来,2007年以来,2009年以来,中国,中国}</t>
+  </si>
+  <si>
+    <t>{玉米淀粉}</t>
+  </si>
+  <si>
+    <t>玉米供给</t>
+  </si>
+  <si>
+    <t>从历年来的生产情况看，在国际玉米市场中，美国的产量占30%以上，中国的产量占近25%左右，南美的产量占10%-15%，成为世界玉米的主产区，其产量和供应量对国际市场的影响较大，特别是美国的玉米产量成为影响国际供给最为重要的因素。其他国家和地区的产量比重都较低，对国际市场影响较小。</t>
+  </si>
+  <si>
+    <t>{从,历年来,的,生产,情况,看,，,在,国际,玉米,市场,中,，,美国,的,产量,占,30%,以上,，,中国,的,产量,占,近,25%,左右,，,南美,的,产量,占,10%,-,15%,，,成为,世界,玉米,的,主产区,，,其,产量,和,供应量,对,国际市场,的,影响,较大,，,特别,是,美国,的,玉米,产量,成为,影响,国际,供给,最为,重要,的,因素,。,其他,国家,和,地区,的,产量,比重,都,较,低,，,对,国际市场,影响,较小,。}</t>
+  </si>
+  <si>
+    <t>{p,t,u,vn,n,v,w,p,n,n,n,f,w,",u,n,v,m,f,w,",u,n,v,vd,m,f,w,ns,u,n,v,m,w,m,w,v,n,n,u,n,w,r,n,c,n,p,n,u,vn,a,w,d,v,",u,n,n,v,v,n,vn,d,a,u,n,w,r,n,c,n,u,n,n,d,d,a,w,p,n,vn,a,w}</t>
+  </si>
+  <si>
+    <t>{美国,中国,美国}</t>
+  </si>
+  <si>
+    <t>玉米需求</t>
+  </si>
+  <si>
+    <t>美国和中国既是玉米的主产国，也是主要消费国，对玉米消费较多的国家还有欧盟、日本、巴西、墨西哥等国家，这些国家消费需求的变化对玉米价格的影响较大，特别是近年来，各主要消费国玉米深加工工业发展迅速，大大推动了玉米消费需求的增加。从国内情况来看，玉米消费主要来自口粮、饲料和工业加工。其中，口粮消费总体变化不大，对市场的影响相对较小；饲料用玉米所占的比例最高，达70%以上，饲料用玉米需求的变化对市场的影响比较大；工业加工用玉米比例占289左右，对市场的影响也非常显著。</t>
+  </si>
+  <si>
+    <t>{美国,和,中国,既是,玉米,的,主产,国,，,也是,主要,消费,国,，,对,玉米,消费,较多,的,国家,还有,欧盟,、,日本,、,巴西,、,墨西哥,等,国家,，,这些,国家,消费,需求,的,变化,对,玉米,价格,的,影响,较大,，,特别,是,近年,来,，,各,主要,消费,国,玉米,深加工,工业,发展,迅速,，,大大,推动,了,玉米,消费,需求,的,增加,。,从,国内,情况,来看,，,玉米,消费,主要,来自,口粮,、,饲料,和,工业,加工,。,其中,，,口粮,消费,总体,变化,不大,，,对,市场,的,影响,相对,较小,；,饲料,用,玉米,所,占,的,比例,最高,，,达,70%,以上,，,饲料,用,玉米,需求,的,变化,对,市场,的,影响,比较,大,；,工业,加工,用,玉米,比例,占,289,左右,，,对,市场,的,影响,也,非常,显著,。}</t>
+  </si>
+  <si>
+    <t>{",c,",v,n,u,vn,n,w,v,a,vn,n,w,p,n,vn,a,u,n,v,",w,",w,",w,",u,n,w,r,n,vn,n,u,vn,p,n,n,u,vn,a,w,d,v,",v,w,r,a,vn,n,n,vn,n,v,a,w,d,v,u,n,vn,n,u,vn,w,p,s,n,v,w,n,vn,ad,v,n,w,n,c,n,vn,w,f,w,n,vn,n,vn,a,w,p,n,u,vn,d,a,w,n,p,n,u,v,u,n,a,w,v,m,f,w,n,p,n,n,u,vn,p,n,u,vn,d,a,w,n,vn,p,n,n,v,m,f,w,p,n,u,vn,d,d,a,w}</t>
+  </si>
+  <si>
+    <t>{美国,中国,欧盟,日本,巴西,墨西哥,近年}</t>
+  </si>
+  <si>
+    <t>玉米进出口</t>
+  </si>
+  <si>
+    <t>玉米进出口对市场的影响非常大。玉米进口会增加国内供给总量，玉米出口会导致需求总量增加。对国际市场而言，重点关注美国、阿根廷等世界主要玉米出口国和日本、韩国、东南亚等国玉米的进口情况，这些国家玉米生产、消费的变化对国际玉米进出口贸易都有直接影响。</t>
+  </si>
+  <si>
+    <t>{玉米,进出口,对,市场,的,影响,非常,大,。,玉米,进口,会,增加,国内,供给,总量,，,玉米,出口,会导致,需求,总量,增加,。,对,国际市场,而言,，,重点,关注,美国,、,阿根廷,等,世界,主要,玉米,出口,国,和,日本,、,韩国,、,东南亚,等,国,玉米,的,进口,情况,，,这些,国家,玉米,生产,、,消费,的,变化,对,国际,玉米,进出口,贸易,都,有,直接影响,。}</t>
+  </si>
+  <si>
+    <t>{n,vn,p,n,u,vn,d,a,w,n,vn,v,v,s,vn,n,w,n,vn,v,n,n,v,w,p,n,u,w,d,v,",w,",u,n,a,n,vn,n,c,",w,",w,",u,n,n,u,vn,n,w,r,n,n,vn,w,vn,u,vn,p,n,n,vn,vn,d,v,v,w}</t>
+  </si>
+  <si>
+    <t>{美国,阿根廷,日本,韩国,东南亚}</t>
+  </si>
+  <si>
+    <t>玉米库存</t>
+  </si>
+  <si>
+    <t>在一定时期内，一种商品库存水平的高低直接反映了该商品供需情况的变化，是商品供求格局的内在反映。因此，研究玉米库存变化有助于了解玉米价格的运行趋势。一般地，在库存水平提高的时候，供给宽松；在库存水平降低的时候，供给紧张。结转库存水平和玉米价格常常呈现负相关关系。</t>
+  </si>
+  <si>
+    <t>{在,一定,时期,内,，,一种,商品,库存,水平,的,高低,直接,反映,了,该,商品,供需,情况,的,变化,，,是,商品,供求,格局,的,内在,反映,。,因此,，,研究,玉米,库存,变化,有助于,了解,玉米,价格,的,运行,趋势,。,一般地,，,在,库存,水平,提高,的,时候,，,供给,宽松,；,在,库存,水平,降低,的,时候,，,供给,紧张,。,结转库存,水平,和,玉米,价格,常常,呈现,负,相关,关系,。}</t>
+  </si>
+  <si>
+    <t>{p,a,n,f,w,m,n,vn,n,u,n,ad,v,u,r,n,n,n,u,vn,w,v,n,vn,n,u,a,vn,w,c,w,v,n,n,vn,v,v,n,n,u,vn,n,w,d,w,p,vn,n,v,u,n,w,v,a,w,p,vn,n,v,u,n,w,v,an,w,nz,n,c,n,n,d,v,a,vn,n,w}</t>
+  </si>
+  <si>
+    <t>{结转库存}</t>
+  </si>
+  <si>
+    <t>玉米成本收益情况</t>
+  </si>
+  <si>
+    <t>玉米的成本收益情况是影响农民种植积极性的主要因素之一，玉米成本对市场价格有一定的影响力，市场粮价过低，农民会惜售；收益情况会影响农民对下一年度玉米种植安排，收益增加，农民可能会增加种植面积，反之可能会减少种植面积。</t>
+  </si>
+  <si>
+    <t>{玉米,的,成本,收益,情况,是,影响,农民,种植,积极性,的,主要,因素,之,一,，,玉米,成本,对,市场价格,有,一定,的,影响力,，,市场,粮价,过低,，,农民,会,惜售,；,收益,情况,会,影响,农民,对,下,一,年度,玉米,种植,安排,，,收益,增加,，,农民,可能会,增加,种植,面积,，,反,之,可能会,减少,种植,面积,。}</t>
+  </si>
+  <si>
+    <t>{n,u,n,n,n,v,v,n,v,n,u,a,n,u,m,w,n,n,p,n,v,a,u,n,w,n,n,v,w,n,v,v,w,n,n,v,v,n,p,f,m,n,n,vn,vn,w,n,v,w,n,v,v,vn,n,w,c,c,v,v,vn,n,w}</t>
+  </si>
+  <si>
+    <t>与其他谷物比价关系</t>
+  </si>
+  <si>
+    <t>玉米与其他大宗农产品的比价关系会对玉米的供需产生影响，进而影响玉米的产销情况，导致玉米未来价格的走势发生变化，因此，研究这种比价关系非常重要，其中，玉米与大豆的种植比价关系、与小麦的消费比价关系最为重要。</t>
+  </si>
+  <si>
+    <t>{玉米,与,其他,大宗农产品,的,比价,关系,会,对,玉米,的,供需,产生,影响,，,进而,影响,玉米,的,产销,情况,，,导致,玉米,未来,价格,的,走势,发生,变化,，,因此,，,研究,这种,比价,关系,非常,重要,，,其中,，,玉米,与,大豆,的,种植,比价,关系,、,与,小麦,的,消费,比价,关系,最为,重要,。}</t>
+  </si>
+  <si>
+    <t>{n,p,r,nz,u,vn,n,v,p,n,u,n,v,vn,w,c,v,n,u,n,n,w,v,n,t,n,u,n,v,vn,w,c,w,v,r,n,n,d,a,w,r,w,n,c,n,u,vn,vn,n,w,p,n,u,vn,vn,n,d,a,w}</t>
+  </si>
+  <si>
+    <t>{大宗农产品}</t>
+  </si>
+  <si>
+    <t>金融货币因素</t>
+  </si>
+  <si>
+    <t>利率变化以及汇率波动已成为各国经济生活中的普遍现象，而这些因素的变化常会引起商品期货行情波动。总的来说，当货币贬值时，玉米期货价格会上涨；当货币升值时，期货价格会下跌。因此，货币的利率和汇率是除了供给量、需求量和经济周期等决定玉米期货价格的主要因素之外的另一重要最纳因素。</t>
+  </si>
+  <si>
+    <t>{利率,变化,以及,汇率,波动,已,成为,各国,经济,生活,中,的,普遍,现象,，,而,这些,因素,的,变化,常,会引起,商品,期货,行情,波动,。,总的来说,，,当,货币贬值,时,，,玉米,期货,价格,会,上涨,；,当,货币,升值,时,，,期货,价格,会,下跌,。,因此,，,货币,的,利率,和,汇率,是,除了,供给,量,、,需求量,和,经济,周期,等,决定,玉米,期货,价格,的,主要,因素,之外,的,另,一,重要,最纳,因素,。}</t>
+  </si>
+  <si>
+    <t>{n,vn,c,n,vn,d,v,n,n,n,f,u,a,n,w,c,r,n,u,vn,d,v,n,n,n,vn,w,d,w,p,vn,n,w,n,n,n,v,v,w,p,n,v,n,w,n,n,v,v,w,c,w,n,u,n,c,n,v,p,vn,n,w,n,c,n,n,u,v,n,n,n,u,a,n,f,u,r,m,a,a,n,w}</t>
+  </si>
+  <si>
+    <t>经济周期</t>
+  </si>
+  <si>
+    <t>世界经济是在繁荣与衰退周期性交替中不断发展的，经济周期是现代经济社会中不可避免的经济波动，是现代经济的基本特征之一。在经济周期中，经济活动的波动发生在几乎所有的经济部门。因此，经济周期是总体经济而非局部经济的波动。衡量总体经济状况的基本指标是国民收入，经济周期也就表现为国民收入的波动，并由此而发生产量、就业、物价水平、利率等的波动。经济周期在经济的运行中周而复始地反复出现，一般由复苏、繁荣、衰退和萧条四个阶段构成。受此影响，玉米的价格也会出现相应的波动，从宏观面进行分析，经济周期是非常重要的影响因素之一。</t>
+  </si>
+  <si>
+    <t>{世界,经济,是,在,繁荣,与,衰退,周期,性交,替,中,不断,发展,的,，,经济,周期,是,现代,经济,社会,中,不可,避免,的,经济,波动,，,是,现代,经济,的,基本,特征,之,一,。,在,经济,周期,中,，,经济,活动,的,波动,发生,在,几乎,所有,的,经济,部门,。,因此,，,经济,周期,是,总体,经济,而,非,局部,经济,的,波动,。,衡量,总体,经济,状况,的,基本,指标,是,国民收入,，,经济,周期,也,就,表现,为,国民收入,的,波动,，,并,由此,而,发生,产量,、,就业,、,物价,水平,、,利率,等,的,波动,。,经济,周期,在,经济,的,运行,中,周而复始,地,反复,出现,，,一般,由,复苏,、,繁荣,、,衰退,和,萧条,四个,阶段,构成,。,受,此,影响,，,玉米,的,价格,也,会出现,相应,的,波动,，,从,宏观,面,进行,分析,，,经济,周期,是,非常,重要,的,影响,因素,之,一,。}</t>
+  </si>
+  <si>
+    <t>{n,n,v,p,an,c,vn,n,n,p,f,ad,v,u,w,n,n,v,t,n,n,f,v,v,u,n,vn,w,v,t,n,u,a,n,u,m,w,p,n,n,f,w,n,n,u,vn,v,p,d,r,u,n,n,w,c,w,n,n,v,n,n,c,v,n,n,u,vn,w,v,n,n,n,u,a,n,v,n,w,n,n,d,d,v,v,n,u,vn,w,c,d,c,v,n,w,vn,w,n,n,w,n,u,u,vn,w,n,n,p,n,u,vn,f,a,u,d,v,w,ad,p,v,w,a,w,v,c,an,m,n,v,w,v,r,vn,w,n,u,n,d,v,v,u,vn,w,p,n,n,v,vn,w,n,n,v,d,a,u,vn,n,u,m,w}</t>
+  </si>
+  <si>
+    <t>贮存、运输成本</t>
+  </si>
+  <si>
+    <t>影响运输成本的原油、海洋运输费率、运输紧张等其他因素的变化，会对玉米价格产生影响。</t>
+  </si>
+  <si>
+    <t>{影响,运输,成本,的,原油,、,海洋,运输,费率,、,运输,紧张,等,其他,因素,的,变化,，,会,对,玉米,价格,产生,影响,。}</t>
+  </si>
+  <si>
+    <t>{v,vn,n,u,n,w,n,vn,n,w,vn,an,u,r,n,u,vn,w,v,p,n,n,v,vn,w}</t>
+  </si>
+  <si>
+    <t>豆粕</t>
+  </si>
+  <si>
+    <t>豆粕是大豆经过提取豆油后得到的一种副产品，按照提取的方法不同，可以分为一浸豆粕和二浸豆粕两种。其中以浸提法提取豆油后的副产品为一浸豆粕，而先以压榨取油，再经过浸提取油后所得的副产品为二浸豆粕。一浸豆粕的生产工艺较为先进，蛋白质含量高，是国内目前现货市场上流通的主要品种。豆粕一般呈不规则碎片状，颜色为浅黄色或浅褐色，味道具有烤大豆香味。豆粕是棉导粕、花生粕、菜粕等12种油粕饲料产品中产量最大、用途最广的一种。作为一种高蛋白质原料，豆粕不仅是用作牲畜与家禽饲料的主要原料，还可以用于制作糕点食品、健康食品以及化妆品，此外，豆粕还作为抗菌素原料使用。近些年，水产养殖对豆粕的消费需求也呈快速增长态势。随着科学技术的发展，豆粕的用途将打开更大的空间。豆粕作为植物蛋白的主要来源，价格波动较大，产业链条长，参与企业多，影响的范围广，这使企业避险和投资需求都较为强烈。大连商品交易所大豆、豆粕、豆油品种的相继推出，完善了大豆品种体系，形成了一个完美的品种套保体系，为相关企业提供了一个使用方便、功能齐全的风险规避场所。</t>
+  </si>
+  <si>
+    <t>{豆粕,是,大豆,经过,提取,豆油,后,得到,的,一种,副产品,，,按照,提取,的,方法,不同,，,可以,分为,一,浸,豆粕,和,二,浸,豆粕,两种,。,其中,以,浸提法,提取,豆油,后,的,副产品,为,一,浸,豆粕,，,而,先,以,压榨,取,油,，,再,经过,浸,提取,油,后,所得,的,副产品,为,二,浸,豆粕,。,一,浸,豆粕,的,生产,工艺,较为,先进,，,蛋白质,含量,高,，,是,国内,目前,现货市场,上,流通,的,主要,品种,。,豆粕,一般,呈,不,规则,碎,片状,，,颜色,为,浅黄色,或,浅,褐色,，,味道,具有,烤,大豆,香味,。,豆粕,是,棉导,粕,、,花生粕,、,菜粕,等,12种,油,粕,饲料,产品,中,产量,最大,、,用途,最,广,的,一种,。,作为,一种,高蛋白质,原料,，,豆粕,不仅,是,用作,牲畜,与,家禽,饲料,的,主要,原料,，,还,可以,用于,制作,糕点,食品,、,健康,食品,以及,化妆品,，,此外,，,豆粕,还,作为,抗菌素,原料,使用,。,近些年,，,水产,养殖,对,豆粕,的,消费,需求,也,呈,快速,增长,态势,。,随着,科学技术,的,发展,，,豆粕,的,用途,将,打开,更大,的,空间,。,豆粕,作为,植物,蛋白,的,主要,来源,，,价格,波动,较大,，,产业,链条,长,，,参与,企业,多,，,影响,的,范围,广,，,这,使,企业,避险,和,投资,需求,都,较为,强烈,。,大连商品交易所,大豆,、,豆粕,、,豆油,品种,的,相继,推出,，,完善,了,大豆,品种,体系,，,形成,了,一个,完美,的,品种,套保,体系,，,为,相关,企业,提供,了,一个,使用方便,、,功能,齐全,的,风险,规避,场所,。}</t>
+  </si>
+  <si>
+    <t>{nz,v,n,p,v,nz,f,v,u,m,n,w,p,v,u,n,a,w,v,v,m,v,n,c,m,v,n,m,w,f,p,nz,v,nz,f,u,n,v,m,v,n,w,c,d,p,vn,v,n,w,d,v,v,v,n,f,v,u,n,v,m,v,n,w,d,v,n,u,vn,n,d,a,w,n,n,a,w,v,s,t,nz,f,v,u,a,n,w,n,ad,v,d,a,a,n,w,n,v,n,c,a,n,w,n,v,v,n,n,w,n,v,vn,n,w,n,w,n,u,m,n,v,n,n,f,n,a,w,n,d,a,u,m,w,p,m,nz,n,w,n,c,v,v,n,c,n,n,u,a,n,w,d,v,v,v,n,n,w,a,n,c,n,w,c,w,n,d,v,nz,n,v,w,t,w,n,vn,p,n,u,vn,n,d,v,ad,v,n,w,p,n,u,vn,w,n,u,n,d,v,a,u,n,w,n,p,n,n,u,a,n,w,n,vn,a,w,n,n,a,w,v,n,a,w,vn,u,n,a,w,r,v,n,v,c,vn,n,d,d,a,w,",n,w,n,w,nz,n,u,d,v,w,v,u,n,n,n,w,v,u,m,a,u,n,vn,n,w,p,vn,n,v,u,m,a,w,n,a,u,n,vn,n,w}</t>
+  </si>
+  <si>
+    <t>{大连商品交易所}</t>
+  </si>
+  <si>
+    <t>{豆粕,豆油,浸提法,现货市场,高蛋白质,抗菌素}</t>
+  </si>
+  <si>
+    <t>生产情况</t>
+  </si>
+  <si>
+    <t>美国、巴西、阿根廷、中国、印度、欧盟等国是世界主要的豆粕生产地区，目前，中国豆粕产量已占全球29%6以上的份额。近几年，中国压榨行业快速发展，中国豆粕的发展速度保持了约896的年平均增长速度。我国是豆粕的生产大国。2000年起，我国豆粕的年产量首次突破1，500万吨，2001年后，豆粕产量出现持续快速增长趋势。2009年豆粕产量超过美国，居世界第一位。在国内豆粕产量迅猛发展的同时，我国豆粕生产布局也发生了根本性的转变，90年代中期以前东北三省是我国豆粕主要生产基地，产量约占全国60%以上，而到2002年以后，随着沿海地区压榨企业的快速发展，山东、江苏、广东等沿海地区已取代东北地区成为我国主要的豆粕生产基地。</t>
+  </si>
+  <si>
+    <t>{美国,、,巴西,、,阿根廷,、,中国,、,印度,、,欧盟,等,国,是,世界,主要,的,豆粕,生产,地区,，,目前,，,中国,豆粕,产量,已,占,全球,29%6,以上,的,份额,。,近几年,，,中国,压榨,行业,快速,发展,，,中国,豆粕,的,发展,速度,保持,了,约,896,的,年,平均,增长速度,。,我,国,是,豆粕,的,生产,大国,。,2000年起,，,我,国,豆粕,的,年,产量,首次,突破,1,，,500万吨,，,2001年后,，,豆粕,产量,出现,持续,快速,增长,趋势,。,2009年,豆粕,产量,超过,美国,，,居,世界,第一位,。,在,国内,豆粕,产量,迅猛,发展,的,同时,，,我,国,豆粕,生产,布局,也,发生,了,根本性,的,转变,，,90年代中期,以前,东北三省,是,我,国,豆粕,主要,生产基地,，,产量,约,占,全国,60%,以上,，,而,到,2002年以后,，,随着,沿海地区,压榨,企业,的,快速,发展,，,山东,、,江苏,、,广东,等,沿海地区,已,取代,东北地区,成为,我,国,主要,的,豆粕,生产基地,。}</t>
+  </si>
+  <si>
+    <t>{",w,",w,",w,",w,",w,",u,n,v,n,a,u,nz,vn,n,w,t,w,",n,n,d,v,n,m,f,u,n,w,",w,",vn,n,ad,v,w,",n,u,vn,n,v,u,d,m,u,n,a,n,w,r,n,v,n,u,vn,n,w,",w,r,n,n,u,n,n,m,v,m,w,m,w,",w,n,n,v,vd,ad,v,n,w,",n,n,v,",w,v,n,m,w,p,s,n,n,ad,v,u,n,w,r,n,nz,vn,n,d,v,u,n,u,vn,w,",f,",v,r,n,n,a,n,w,n,d,v,n,m,f,w,c,v,",w,p,s,v,n,u,a,vn,w,",w,",w,",u,n,d,v,",v,r,n,a,u,nz,n,w}</t>
+  </si>
+  <si>
+    <t>{美国,巴西,阿根廷,中国,印度,欧盟,中国,近几年,中国,中国,2000年起,2001年后,2009年,美国,90年代中期,东北三省,2002年以后,山东,江苏,广东,东北地区}</t>
+  </si>
+  <si>
+    <t>{豆粕}</t>
+  </si>
+  <si>
+    <t>消费情况</t>
+  </si>
+  <si>
+    <t>近几年来，世界豆粕消费呈现跳跃性的增长。2018/19年世界豆粕消费量预计为23451万吨。目前，豆粕消费占世界蛋白粕总消费量的60%以上。2008年前，欧盟一直是全球最大的消费国，近几年，欧盟的豆粕需求量维持在3000万吨左右的规模。中国2008/09年的豆粕消费量超过欧盟成为世界最大豆粕消费地区。到2018/19年豆粕消费量已达到6882万吨。2004年以后，东亚国家如中国、韩国、日本以及东南亚各国的豆粕消费量呈现迅猛增长的态势，这在很大程度上拉动了全球消费。随着人民生活水平的提高，我国城乡居民对肉蛋禽鱼等食品的摄取量大幅增加，促进了饲料加工业的迅猛发展。家禽、优质瘦肉型猪所用饲料迅速增加，刺激了对优质蛋白饲料的需求。我国饼舶类产品很多，菜籽粕和棉籽饼的产量也很大，但这两种讲舶都要经过脱毒后才能用于饲料，因此，目前国内使用的优质粕主要是大豆粕。从地区分布来看，珠江三角洲和长江流域地区是目前我国豆粕的主要消费地。从具体省市来看，豆粕消费主要集中在广东、四川、江苏、湖南、浙江、江西、安徽、湖北、福建、北京和上海等省市。</t>
+  </si>
+  <si>
+    <t>{近几年,来,，,世界,豆粕,消费,呈现,跳跃性,的,增长,。,2018,/,19年,世界,豆粕,消费量,预计,为,23451万吨,。,目前,，,豆粕,消费,占,世界,蛋白,粕,总,消费量,的,60%,以上,。,2008年前,，,欧盟,一直,是,全球,最大,的,消费,国,，,近几年,，,欧盟,的,豆粕,需求量,维持,在,3000万吨,左右,的,规模,。,中国,2008/09年,的,豆粕,消费量,超过,欧盟,成为,世界,最大,豆粕,消费,地区,。,到,2018,/,19年,豆粕,消费量,已,达到,6882万吨,。,2004年以后,，,东亚,国家,如,中国,、,韩国,、,日本,以及,东南亚,各国,的,豆粕,消费量,呈现,迅猛,增长,的,态势,，,这,在,很大,程度,上,拉动,了,全球,消费,。,随着,人民,生活水平,的,提高,，,我,国,城乡,居民,对,肉蛋禽,鱼,等,食品,的,摄取,量,大幅,增加,，,促进,了,饲料,加工业,的,迅猛,发展,。,家禽,、,优质,瘦肉型,猪,所用,饲料,迅速,增加,，,刺激,了,对,优质,蛋白,饲料,的,需求,。,我,国,饼舶类,产品,很多,，,菜籽粕,和,棉籽饼,的,产量,也,很大,，,但,这,两种,讲,舶,都,要,经过,脱毒,后,才能,用于,饲料,，,因此,，,目前,国内,使用,的,优质粕,主要,是,大,豆粕,。,从,地区,分布,来看,，,珠江三角洲,和,长江流域,地区,是,目前,我,国,豆粕,的,主要,消费,地,。,从,具体,省市,来看,，,豆粕,消费,主要,集中,在,广东,、,四川,、,江苏,、,湖南,、,浙江,、,江西,、,安徽,、,湖北,、,福建,、,北京,和,上海,等,省市,。}</t>
+  </si>
+  <si>
+    <t>{",v,w,n,n,vn,v,n,u,vn,w,m,w,",n,n,n,v,v,m,w,t,w,nz,vn,v,n,n,v,a,n,u,m,f,w,",w,nt,d,v,n,a,u,vn,n,w,",w,nt,u,n,n,v,p,m,f,u,n,w,",t,u,n,n,v,nt,v,n,a,n,vn,n,w,v,m,w,",n,n,d,v,m,w,",w,",n,v,",w,",w,",c,",n,u,n,n,v,ad,v,u,n,w,r,p,a,n,f,v,u,n,vn,w,p,n,n,u,vn,w,r,n,n,n,p,n,n,u,n,u,vn,n,d,v,w,v,u,n,n,u,a,vn,w,n,w,a,a,n,v,n,ad,v,w,v,u,p,a,n,n,u,n,w,r,n,n,n,a,w,nz,c,nz,u,n,d,a,w,c,r,m,v,n,d,v,v,v,f,v,v,n,w,c,w,t,s,v,u,n,ad,v,a,n,w,p,n,vn,v,w,",c,ns,n,v,t,r,n,n,u,a,vn,n,w,p,a,n,v,w,n,vn,ad,v,p,",w,",w,",w,",w,",w,",w,",w,",w,",w,",c,",u,n,w}</t>
+  </si>
+  <si>
+    <t>{近几年,19年,2008年前,近几年,中国,19年,2004年以后,东亚,中国,韩国,日本,东南亚,珠江三角洲,广东,四川,江苏,湖南,浙江,江西,安徽,湖北,福建,北京,上海}</t>
+  </si>
+  <si>
+    <t>{豆粕,菜籽粕,棉籽饼}</t>
+  </si>
+  <si>
+    <t>出口情况</t>
+  </si>
+  <si>
+    <t>目前世界豆粕主要出口国为阿根廷、巴西、美国、印度等国家。其中，阿根廷和巴西一直占世界豆粕出口量之首。2018/19年，阿根廷和巴西两国的豆粕出口量占到全球总出口量的67%，美国约占18%，印度的豆粕出口主要面向东南亚等地区，由于内需增长迅猛，预计出口总量占全球总量的2.7%，去年为2.899%。自90年代中期以来，我国豆粕的产需状况发生了显著变化，1994年以前，中国是豆粕出口大国，其年出口量一般都超过100万吨。但其后几年国内市场对豆粕的强劲需求及国内榨油用大豆的减少，导致国内豆粕生产远不能满足消费需求，转而变成了主要豆粕进口国 1997/98年度，中国豆k进口400万吨。从1999年开始，随着国内压榨企业不断扩大生产规模，我国大量进口大豆用于压榨，国产豆粕才得以满足快速膨胀的消费需求。</t>
+  </si>
+  <si>
+    <t>{目前,世界,豆粕,主要,出口,国,为,阿根廷,、,巴西,、,美国,、,印度,等,国家,。,其中,，,阿根廷,和,巴西,一直,占,世界,豆粕,出口,量,之,首,。,2018,/,19年,，,阿根廷,和,巴西,两国,的,豆粕,出口,量,占,到,全球,总,出口,量,的,67%,，,美国,约,占,18%,，,印度,的,豆粕,出口,主要,面向,东南亚,等,地区,，,由于,内需,增长,迅猛,，,预计,出口,总量,占,全球,总量,的,2.7%,，,去年,为,2.899%,。,自,90年代中期,以来,，,我,国,豆粕,的,产,需,状况,发生,了,显著,变化,，,1994年以前,，,中国,是,豆粕,出口,大国,，,其,年,出口,量,一般,都,超过,100万吨,。,但,其后,几年,国内市场,对,豆粕,的,强劲,需求,及,国内,榨油,用,大豆,的,减少,，,导致,国内,豆粕,生产,远,不能,满足,消费,需求,，,转,而,变成,了,主要,豆粕,进口,国, ",1997,/,98,年度,，,中国,豆,k,进口,400万吨,。,从,1999年,开始,，,随着,国内,压榨,企业,不断,扩大,生产,规模,，,我,国,大量,进口,大豆,用于,压榨,，,国产,豆粕,才,得以,满足,快速,膨胀,的,消费,需求,。}"</t>
+  </si>
+  <si>
+    <t>{t,n,n,a,vn,n,v,",w,",w,",w,",u,n,w,f,w,",c,",d,v,n,n,vn,n,u,n,w,m,w,",w,",c,",n,u,nz,vn,n,v,v,n,a,vn,n,u,m,w,",d,v,m,w,",u,n,vn,ad,v,",u,n,w,p,n,v,a,w,v,vn,n,v,n,n,u,m,w,",v,m,w,p,",f,w,r,n,n,u,vn,v,n,v,u,a,vn,w,",w,",v,nz,vn,n,w,r,q,vn,n,ad,d,v,m,w,c,f,m,n,p,n,u,a,n,c,s,v,p,n,u,vn,w,v,s,nz,vn,ad,v,v,vn,n,w,c,c,v,u,a,n,vn,n,w,t,w,m,n,w,",n,xc,v,m,w,p,",v,w,p,s,vn,n,ad,v,vn,n,w,r,n,a,vn,n,v,vn,w,a,n,d,v,v,ad,v,u,vn,n,w}</t>
+  </si>
+  <si>
+    <t>{阿根廷,巴西,美国,印度,阿根廷,巴西,19年,阿根廷,巴西,美国,印度,东南亚,去年,90年代中期,1994年以前,中国,中国,1999年}</t>
+  </si>
+  <si>
+    <t>大豆供应量</t>
+  </si>
+  <si>
+    <t>豆粕作为大豆加工的副产品，大豆供应量的多少直接决定着豆粕的供应量，正常情况下，大豆供应量的增加必然导致豆粕供应量的增加。大豆的来源主要有两块，一是国产大豆，二是进口大豆。我国的东北及黄淮地区是大豆的主产区，近几年，我国大豆年总产量在1，500万吨左右徘徊，其中商品大豆量约为600万吨。我国2018/19年进口大豆将达到9080万吨。</t>
+  </si>
+  <si>
+    <t>{豆粕,作为,大豆,加工,的,副产品,，,大豆,供应量,的,多少,直接,决定,着,豆粕,的,供应量,，,正常,情况,下,，,大豆,供应量,的,增加,必然,导致,豆粕,供应量,的,增加,。,大豆,的,来源,主要,有,两块,，,一,是,国产,大豆,，,二,是,进口,大豆,。,我,国,的,东北,及,黄淮地区,是,大豆,的,主产区,，,近几年,，,我,国,大豆,年,总产量,在,1,，,500万吨,左右,徘徊,，,其中,商品,大豆,量,约,为,600万吨,。,我,国,2018,/,19年,进口,大豆,将,达到,9080万吨,。}</t>
+  </si>
+  <si>
+    <t>{n,p,n,vn,u,n,w,n,n,u,r,ad,v,u,n,u,n,w,a,n,f,w,n,n,u,vn,d,v,n,n,u,vn,w,n,u,n,ad,v,m,w,m,v,a,n,w,m,v,vn,n,w,r,n,u,",c,",v,n,u,n,w,",w,r,n,n,n,n,p,m,w,m,f,v,w,f,n,n,n,d,v,m,w,r,n,m,w,",vn,n,d,v,m,w}</t>
+  </si>
+  <si>
+    <t>{东北,黄淮地区,近几年,19年}</t>
+  </si>
+  <si>
+    <t>大豆价格</t>
+  </si>
+  <si>
+    <t>大豆价格的高低直接影响豆粕生产的成本，近几年，我国许多大型压检企业选择进口大豆作为加工原料，进口大豆价格对我国豆粕价格的影响更为明显。</t>
+  </si>
+  <si>
+    <t>{大豆,价格,的,高低,直接,影响,豆粕,生产,的,成本,，,近几年,，,我,国,许多,大型,压,检,企业,选择,进口,大豆,作为,加工,原料,，,进口,大豆,价格,对,我,国,豆粕,价格,的,影响,更为,明显,。}</t>
+  </si>
+  <si>
+    <t>{n,n,u,n,ad,v,nz,vn,u,n,w,",w,r,n,m,a,vn,vn,n,v,vn,n,v,vn,n,w,vn,n,n,p,r,n,n,n,u,vn,d,a,w}</t>
+  </si>
+  <si>
+    <t>{近几年}</t>
+  </si>
+  <si>
+    <t>豆粕产量</t>
+  </si>
+  <si>
+    <t>豆粕当期产量是一个变量，它受制于大豆供应量、大豆压榨收益、生产成本等因素。一般来讲，豆粕产量与豆粕价格之间存在反向关系，豆粕产量越大，价格相对较低；相反，豆箱产量减少，豆粕价格则上涨。</t>
+  </si>
+  <si>
+    <t>{豆粕,当期,产量,是,一个,变量,，,它,受制,于,大豆,供应量,、,大豆,压榨,收益,、,生产成本,等,因素,。,一般,来讲,，,豆粕,产量,与,豆粕,价格,之间,存在,反向,关系,，,豆粕,产量,越,大,，,价格,相对,较,低,；,相反,，,豆,箱,产量,减少,，,豆粕,价格,则,上涨,。}</t>
+  </si>
+  <si>
+    <t>{n,t,n,v,m,n,w,r,v,p,n,n,w,n,vn,n,w,n,u,n,w,ad,v,w,n,n,p,n,n,f,v,n,n,w,n,n,d,a,w,n,d,d,a,w,d,w,n,n,n,v,w,n,n,d,v,w}</t>
+  </si>
+  <si>
+    <t>豆粕库存</t>
+  </si>
+  <si>
+    <t>豆粕库存是构成总产量的重要部分，前期库存量的多少体现着供应量的紧张程度。供应短缺则价格上涨，供应充裕则价格下降。由于豆粕具有不易保存的特点，一旦豆粕库存增加，豆粕的价格往往会调低。</t>
+  </si>
+  <si>
+    <t>{豆粕,库存,是,构成,总产量,的,重要,部分,，,前期,库存量,的,多少,体现,着,供应量,的,紧张,程度,。,供应,短缺,则,价格,上涨,，,供应,充裕,则,价格,下降,。,由于,豆粕,具有,不易,保存,的,特点,，,一旦,豆粕,库存,增加,，,豆粕,的,价格,往往,会,调低,。}</t>
+  </si>
+  <si>
+    <t>{nz,n,v,v,n,u,a,n,w,t,n,u,r,v,u,n,u,a,n,w,vn,vn,c,n,v,w,vn,a,c,n,v,w,p,n,v,ad,v,u,n,w,d,n,n,v,w,nz,u,n,d,v,v,w}</t>
+  </si>
+  <si>
+    <t>豆粕消费情况</t>
+  </si>
+  <si>
+    <t>我国是豆粕消费大国，近几年，豆粕消费保持了89%以上的年增长速度。豆粕在饲料业中家禽的使用量占526，所以牲畜、家禽价格的影响直接构成对饲料需求的影响。正常情况下，牲斋、家禽的价格与豆粕价格之间存在明显的正相关。统计显示，90%以上的豆粕消费是用于各类饲料，所以饲料行业景气度状况对豆粕需求的影响非常明显。</t>
+  </si>
+  <si>
+    <t>{我,国,是,豆粕,消费,大国,，,近几年,，,豆粕,消费,保持,了,89%,以上,的,年,增长速度,。,豆粕,在,饲料业,中,家禽,的,使用,量,占,526,，,所以,牲畜,、,家禽,价格,的,影响,直接,构成,对,饲料,需求,的,影响,。,正常,情况,下,，,牲斋,、,家禽,的,价格,与,豆粕,价格,之间,存在,明显,的,正,相关,。,统计,显示,，,90%,以上,的,豆粕,消费,是,用于,各类,饲料,，,所以,饲料,行业,景气度,状况,对,豆粕,需求,的,影响,非常,明显,。}</t>
+  </si>
+  <si>
+    <t>{r,n,v,nz,vn,n,w,",w,nz,vn,v,u,m,f,u,n,n,w,n,p,n,f,n,u,vn,n,v,m,w,c,n,w,n,n,u,vn,ad,v,p,n,n,u,vn,w,a,n,f,w,nr,w,n,u,n,p,n,n,f,v,a,u,d,v,w,vn,v,w,m,f,u,nz,vn,v,v,r,n,w,c,n,n,n,n,p,n,n,u,vn,d,a,w}</t>
+  </si>
+  <si>
+    <t>豆粕与大豆、豆油的比价关系</t>
+  </si>
+  <si>
+    <t>豆粕是大豆的副产品，每1吨大豆可以压榨出大约0.18吨的豆油和0.8吨的豆粕，豆粕的价格与大豆的价格有密切的关系，一般来讲，每年大豆的产量都会影响到豆舶的价格，大豆丰收则豆粕价跌，大豆欠收则豆粕就会涨价。同时，豆油与豆粕之间也存在一定程度的关联，豆油价好，豆粕就会价跌，豆油滞销，豆粕产量就将减少，豆粕价格将上涨。大豆压榨效益是决定豆粕供应量的重要因素之一，如果油脂厂的压榨效益一直低迷，那么，一些厂家会停产，从而减少豆粕的市场供应量。</t>
+  </si>
+  <si>
+    <t>{豆粕,是,大豆,的,副产品,，,每,1吨,大豆,可以,压榨,出,大约,0.18吨,的,豆油,和,0.8吨,的,豆粕,，,豆粕,的,价格,与,大豆,的,价格,有,密切,的,关系,，,一般,来讲,，,每年,大豆,的,产量,都会,影响,到,豆,舶,的,价格,，,大豆,丰收,则,豆粕,价,跌,，,大豆,欠收,则,豆粕,就会,涨价,。,同时,，,豆油,与,豆粕,之间,也,存在,一定,程度,的,关联,，,豆油,价,好,，,豆粕,就会,价,跌,，,豆油,滞销,，,豆粕,产量,就,将,减少,，,豆粕,价格,将,上涨,。,大豆,压榨,效益,是,决定,豆粕,供应量,的,重要,因素,之,一,，,如果,油脂厂,的,压榨,效益,一直,低迷,，,那么,，,一些,厂家,会,停产,，,从而,减少,豆粕,的,市场,供应量,。}</t>
+  </si>
+  <si>
+    <t>{nz,v,n,u,n,w,r,m,n,v,v,v,d,m,u,nz,c,m,u,n,w,n,u,n,p,n,u,n,v,a,u,n,w,ad,v,w,",n,u,n,v,v,v,n,v,u,n,w,n,vn,c,n,n,v,w,n,a,c,n,v,v,w,d,w,nz,c,n,f,d,v,a,n,u,vn,w,nz,n,a,w,n,v,n,v,w,nz,v,w,n,n,d,d,v,w,n,n,d,v,w,n,vn,n,v,v,nz,n,u,a,n,u,m,w,c,n,u,vn,n,d,a,w,c,w,m,n,v,v,w,c,v,n,u,n,n,w}</t>
+  </si>
+  <si>
+    <t>{每年}</t>
+  </si>
+  <si>
+    <t>{豆粕,豆油}</t>
+  </si>
+  <si>
+    <t>豆粕替代品价格的影响</t>
+  </si>
+  <si>
+    <t>除了大豆、豆油等相关商品对豆柏价格影响外，棉籽粕、花生粕、菜柏等豆粕的替代品对豆粕价格也有一定影响，如果豆粕价格高企，饲料企业往往会考虑增加使用菜粕等替代品。</t>
+  </si>
+  <si>
+    <t>{除了,大豆,、,豆油,等,相关,商品,对,豆,柏,价格,影响,外,，,棉籽粕,、,花生粕,、,菜柏,等,豆粕,的,替代品,对,豆粕,价格,也有,一定,影响,，,如果,豆粕,价格,高企,，,饲料,企业,往往,会,考虑,增加,使用,菜粕,等,替代品,。}</t>
+  </si>
+  <si>
+    <t>{p,n,w,nz,u,vn,n,p,n,n,n,vn,f,w,nz,w,n,w,n,u,n,u,n,p,n,n,v,a,vn,w,c,n,n,v,w,n,n,d,v,v,v,v,n,u,n,w}</t>
+  </si>
+  <si>
+    <t>{豆油,棉籽粕}</t>
+  </si>
+  <si>
+    <t>相关的农业、贸易、食品政策</t>
+  </si>
+  <si>
+    <t>近几年，禽流感、疯牛病及口蹄疫的相继发生以及出于转基因食品对人体健康影响的考虑，越来越多的国家实施了新的食品政策。这些新食品政策的实施，对养殖业及豆粕的需求影响都是非常直接的。</t>
+  </si>
+  <si>
+    <t>{近几年,，,禽流感,、,疯牛病,及,口蹄疫,的,相继,发生,以及,出于,转基因食品,对,人体,健康,影响,的,考虑,，,越来,越多,的,国家,实施,了,新,的,食品,政策,。,这些,新,食品,政策,的,实施,，,对,养殖业,及,豆粕,的,需求,影响,都是,非常,直接,的,。}</t>
+  </si>
+  <si>
+    <t>{",w,n,w,nz,c,n,u,d,v,c,v,nz,p,n,an,vn,u,vn,w,d,a,u,n,v,u,a,u,n,n,w,r,a,n,n,u,vn,w,p,n,c,n,u,n,vn,v,d,a,u,w}</t>
+  </si>
+  <si>
+    <t>{疯牛病,转基因食品}</t>
+  </si>
+  <si>
+    <t>词性标注</t>
+  </si>
+  <si>
+    <t>nz_名词</t>
+  </si>
+  <si>
+    <t>玉米	为	禾	本科	，	属	一	年	生	草本植物	。	在	全球	三	大	谷物	中	，	玉米	总产量	和	平均	单产	均	居	世界	首	位	。	中国	的	玉米	栽培	面积	居	世界	第一	位	，	总产量	均	居	世界	第二	位	。	在	世界	谷类	作物	中	，	玉米	的	种植	范围	广	。	玉米	的	播种	面积	以	北美	最	多	，	其次	为	亚洲	、	拉丁美洲	、	欧洲	等	。	玉米	占	世界	粗粮	产量	的	65%	以上	，	占	我国	粗粮	产量	的	90%	。	玉米	籽粒	中	含有	70-75	%	的	淀粉	，	10%	左右	的	蛋白质	，	4-59	%	的	脂肪	，	2%	左右	的	多种	维生素	。	以	玉米	为	原料	制成	的	加工	产品	有	3000	种	以上	。	玉米	是	制造	复合	饲料	的	最	主要	原料	，	一般	占	65%	-70	%	玉米	也	是	世界	上	最	重要	的	食粮	之一	，	特别	是	一些	非洲	、	拉丁美洲	国家	。	现今	全世界	约	有	三分之一	人口	以	玉米	为	主要	粮食	。</t>
+  </si>
+  <si>
+    <t>n	v	n	n	wp	v	m	q	v	i	wp	p	n	m	a	n	nd	wp	n	n	c	a	n	d	v	n	m	q	wp	ns	u	n	v	n	v	n	m	q	wp	n	d	v	n	m	q	wp	p	n	n	n	nd	wp	n	u	v	n	a	wp	n	u	v	n	p	ns	d	a	wp	c	v	ns	wp	ns	wp	ns	u	wp	n	v	n	n	n	u	m	nd	wp	v	n	n	n	u	m	wp	n	n	nd	v	m	wp	u	n	wp	m	m	u	n	wp	m	wp	u	n	wp	m	m	u	m	n	wp	p	n	v	n	v	u	v	n	v	m	q	nd	wp	n	v	v	v	n	u	d	b	n	wp	a	v	m	m	wp	n	d	v	n	nd	d	a	u	n	r	wp	d	v	m	ns	wp	ns	n	wp	nt	n	d	v	m	n	p	n	v	b	n	wp</t>
+  </si>
+  <si>
+    <t>全世界	每年	种植	玉米	1.91	多亿	公顷	，	总产量	11亿	多	吨	，	约	占	全球	粮食	总量	的	309%	-35	%	，	主要	分布	国家	有	美国	、	中国	、	巴西	、	阿根廷	，	这	四	个	国家	的	总产量	约	占	全球	总产量	的	7096	左右	，	其中	美国	约	占	35%	，	中国	占	23%	左右	。</t>
+  </si>
+  <si>
+    <t>n	r	v	n	m	m	q	wp	n	m	m	q	wp	d	v	n	n	n	u	m	m	wp	wp	d	v	n	v	ns	wp	ns	wp	ns	wp	ns	wp	r	m	q	n	u	n	d	v	n	n	u	m	m	wp	r	ns	d	v	m	wp	ns	v	m	m	wp</t>
+  </si>
+  <si>
+    <t>在	过去	的	几	年	中	，	全球	玉米	的	出口	总量	保持	在	1.2-1.7	亿	吨	，	并	有	逐年	上升	趋势	。	从	出口国	看	，	美国	、	阿根廷	和	巴西	等	玉米	主产	国家	也	是	玉米	出口	大国	。	美国	年	出口	玉米	在	5000-6000	万	吨	左右	，	占	全球	玉米	贸易	总量	的	30%	-40	%	6	，	并	呈现	逐年	增加	态势	。	巴西	和	阿根廷	年均	出口	约	为	2000-3000	万	吨	，	并	有	逐年	上升	趋势	。	中国	虽然	是	世界	第二	大	玉米	主产国	，	但	中国	同样	是	玉米	消费	大国	，	因此	我国	出口量	极	少	。	玉米	的	主要	进口国	集中	在	亚洲	及	欧盟	地区	，	其中	日本	年均	进口量	约	为	1400-1700	万	吨	，	主要	来自	美国	；	韩国	年	进口量	约	为	700-1000	万	吨	，	主要	来自	美国	。	近年来	墨西哥	玉米	进口	数量	逐年	攀升	，	维持	在	800-100	吨	水平	，	欧盟	在	2015	/	16	年度	、	2016	/	17	年度	、	2017	/	18	年度	至	2018	/	9	年度	进口	玉米	数量	显著	增长	，	目前	年	进口量	超过	2000万	吨	，	埃及	玉米	年	进口	整体	呈	增长	趋势	，	进口量	在	700-1000	万	吨	，	中国	台湾省	年	进口量	400-500	万	吨	，	加拿大	100-200	万	吨	。</t>
+  </si>
+  <si>
+    <t>p	nt	u	m	q	nd	wp	n	n	u	v	n	v	p	m	m	q	wp	c	v	d	v	n	wp	p	n	v	wp	ns	wp	ns	c	ns	u	n	v	n	d	v	n	v	n	wp	ns	q	v	n	p	m	m	q	m	wp	v	n	n	v	n	u	m	m	wp	m	wp	c	v	d	v	n	wp	ns	c	ns	j	v	d	v	m	m	q	wp	c	v	d	v	n	wp	ns	c	v	n	m	a	n	n	wp	c	ns	d	v	n	v	n	wp	c	n	n	d	a	wp	n	u	b	n	v	p	ns	c	j	n	wp	r	ns	j	n	d	v	m	m	q	wp	d	v	ns	wp	ns	q	n	d	v	m	m	q	wp	d	v	ns	wp	i	ns	n	v	n	d	v	wp	v	p	m	q	n	wp	j	p	nt	wp	m	n	wp	nt	wp	m	n	wp	m	wp	m	n	p	nt	wp	m	n	v	n	n	a	v	wp	nt	q	n	v	m	q	wp	ns	n	q	v	n	v	v	n	wp	n	p	m	m	q	wp	ns	ns	q	n	m	m	q	wp	ns	m	m	q	wp</t>
+  </si>
+  <si>
+    <t>全球	每年	玉米	总	消费量	从	1999/2000	年度	开始	就	保持	在	6亿	吨	以上	，	2009/10	年度	以来	消费量	超过	8亿	吨	，	2016	/	17	年度	消费量	达到	10亿	吨	以上	。	玉米	的	消费	主要	有	四	方面	，	即	食用	、	饲用	、	工业	加工	及	种用	。	玉米	是	“	饲料	之	王	”	，	2010	/	11	年度	以来	全球	词用	玉米	消费	超过	5	吨	，	2015	/	16年	饲用	玉米	消费	超过	6亿	吨	，	2018	/	19年	超过	7亿	吨	，	约	占	玉米	消费	总量	的	60%	，	未来	随着	全球	玉米	加工	产业	的	发展	，	对	玉米	消费	的	需求	还	会	增加	，	产	需	之间	的	矛盾	会	更加	突出	。</t>
+  </si>
+  <si>
+    <t>n	r	n	b	n	p	m	n	v	d	v	p	m	q	nd	wp	m	n	nd	n	v	m	q	wp	m	wp	m	n	n	v	m	q	nd	wp	n	u	v	d	v	m	n	wp	v	v	wp	v	wp	n	v	c	v	wp	n	v	wp	n	u	n	wp	wp	nt	wp	m	n	nd	n	v	n	v	v	m	q	wp	nt	wp	nt	v	n	v	v	m	q	wp	m	wp	nt	v	m	q	wp	d	v	n	v	n	u	m	wp	nt	p	n	n	v	n	u	v	wp	p	n	v	u	n	d	v	v	wp	v	v	nd	u	a	v	d	a	wp</t>
+  </si>
+  <si>
+    <t>我国	是	玉米	生产	大国	，	总产量	居	世界	第二	，	玉米	生产	区域	分布	广泛	，	北方	的	辽	、	吉	、	黑	、	蒙	、	晋	、	冀	、	鲁	、	豫	8	省区	生产	了	全国	70%	以上	的	玉米	，	尤其	是	东北	地区	（	含	内蒙	）	，	常年	玉米	播种	面积	为	1000-1400	万	公顷	，	正常	年份	玉米	产量	为	9000-12000	万	吨	左右	，	占	全国	玉米	总产量	的	40%	左右	，	是	我国	最	大	的	玉米	商品粮	产地	。	华北	黄淮	地区	（	包括	京	、	津	、	冀	、	鲁	、	豫	、	苏和皖	）	常年	玉米	播种	面积	为	1000-1100	万	公顷	，	正常	年份	玉米	产量	为	5000-7000	万	吨	左右	，	产量	约	占	全国	总产量	的	30%	，	但	商品率	低于	东北	地区	。</t>
+  </si>
+  <si>
+    <t>n	v	n	v	n	wp	n	v	n	m	wp	n	v	n	v	a	wp	nl	u	j	wp	j	wp	a	wp	j	wp	j	wp	j	wp	j	wp	j	m	n	v	u	n	m	nd	u	n	wp	d	v	nl	n	wp	v	n	wp	wp	d	n	v	n	v	m	m	q	wp	a	n	n	n	v	m	m	q	m	wp	v	n	n	n	u	m	m	wp	v	n	d	a	u	n	n	n	wp	ns	j	n	wp	v	j	wp	j	wp	j	wp	j	wp	j	wp	nh	wp	d	n	v	n	v	m	m	q	wp	a	n	n	n	v	m	m	q	m	wp	n	d	v	n	n	u	m	wp	c	n	v	nl	n	wp</t>
+  </si>
+  <si>
+    <t>我国	作为	玉米	消费	大国	，	玉米	消费	主要	用于	饲料	生产	和	工业	加工	消费	，	者	占	比	达	90%	以上	。	饲用	玉米	消费	整体	维持	逐年	增长	的	趋势	，	到	2018	/	19	年度	饲用	玉米	消费	增加	至	近	2亿	吨	，	而	随着	城乡	居民	生活	水平	的	提高	，	包括	玉米	淀粉	、	造纸	、	酿造	、	医药	、	燃料	乙醇	等	玉米	深	加工	得到	了	快速	发展	，	且	深	加工	产业	玉米	消费量	逐年	增加	。	我国	调	减	了	部分	非优势	地区	玉米	种植	面积	，	玉米	产量	于	2017	/	18年	以来	出现	了	小幅	减少	。	与	消费量	增长	相	匹配	。	2007年	以来	，	国内	玉米	出口量	大幅	下降	，	2009年	以来	中国	玉米	进口量	迅速	增加	，	中国	已经	由	玉米	净	出口国	转变	成为	净	进口国	。</t>
+  </si>
+  <si>
+    <t>n	v	n	v	n	wp	n	v	d	v	n	v	c	n	v	v	wp	r	v	n	v	m	nd	wp	v	n	v	n	v	d	v	u	n	wp	p	nt	wp	m	n	v	n	v	v	v	a	m	q	wp	c	p	n	n	v	n	u	v	wp	v	n	n	wp	v	wp	v	wp	n	wp	n	n	u	n	d	v	v	u	b	v	wp	c	d	v	n	n	n	d	v	wp	n	v	v	u	m	b	n	n	v	n	wp	n	n	p	nt	wp	nt	nd	v	u	d	v	wp	p	n	v	d	v	wp	nt	nd	wp	nl	n	n	d	v	wp	nt	nd	ns	n	n	a	v	wp	ns	d	p	n	a	n	v	v	a	n	wp</t>
+  </si>
+  <si>
+    <t>从	历年来	的	生产	情况	看	，	在	国际	玉米	市场	中	，	美国	的	产量	占	30%	以上	，	中国	的	产量	占	近	25%	左右	，	南美	的	产量	占	10%	-15	%	，	成为	世界	玉米	的	主产区	，	其	产量	和	供应量	对	国际	市场	的	影响	较	大	，	特别	是	美国	的	玉米	产量	成为	影响	国际	供给	最为	重要	的	因素	。	其他	国家	和	地区	的	产量	比重	都	较	低	，	对	国际	市场	影响	较	小	。</t>
+  </si>
+  <si>
+    <t>p	i	u	v	n	v	wp	p	n	n	n	nd	wp	ns	u	n	v	m	nd	wp	ns	u	n	v	v	m	m	wp	ns	u	n	v	m	m	wp	wp	v	n	n	u	n	wp	r	n	c	n	p	n	n	u	v	d	a	wp	d	v	ns	u	n	n	v	v	n	v	d	a	u	n	wp	r	n	c	n	u	n	n	d	d	a	wp	p	n	n	v	d	a	wp</t>
+  </si>
+  <si>
+    <t>美国	和	中国	既	是	玉米	的	主产国	，	也	是	主要	消费国	，	对	玉米	消费	较	多	的	国家	还有	欧盟	、	日本	、	巴西	、	墨西哥	等	国家	，	这些	国家	消费	需求	的	变化	对	玉米	价格	的	影响	较	大	，	特别	是	近年来	，	各	主要	消费国	玉米	深	加工	工业	发展	迅速	，	大大	推动	了	玉米	消费	需求	的	增加	。	从	国内	情况	来	看	，	玉米	消费	主要	来自	口粮	、	饲料	和	工业	加工	。	其中	，	口粮	消费	总体	变化	不	大	，	对	市场	的	影响	相对	较	小	；	饲料	用	玉米	所	占	的	比例	最高	，	达	70%	以上	，	饲料	用	玉米	需求	的	变化	对	市场	的	影响	比较	大	；	工业	加工	用	玉米	比例	占	289	左右	，	对	市场	的	影响	也	非常	显著	。</t>
+  </si>
+  <si>
+    <t>ns	c	ns	c	v	n	u	n	wp	d	v	b	n	wp	p	n	v	d	a	u	n	v	j	wp	ns	wp	ns	wp	ns	u	n	wp	r	n	v	n	u	v	p	n	n	u	v	d	a	wp	d	v	i	wp	r	b	n	n	d	v	n	v	a	wp	d	v	u	n	v	n	u	v	wp	p	nl	n	v	v	wp	n	v	d	v	n	wp	n	c	n	v	wp	r	wp	n	v	n	v	d	a	wp	p	n	u	v	d	d	a	wp	n	p	n	u	v	u	n	a	wp	v	m	nd	wp	n	p	n	n	u	v	p	n	u	v	d	a	wp	n	v	p	n	n	v	m	m	wp	p	n	u	v	d	d	a	wp</t>
+  </si>
+  <si>
+    <t>玉米	进出口	对	市场	的	影响	非常	大	。	玉米	进口	会	增加	国内	供给	总量	，	玉米	出口	会	导致	需求	总量	增加	。	对	国际	市场	而言	，	重点	关注	美国	、	阿根廷	等	世界	主要	玉米	出口国	和	日本	、	韩国	、	东南亚	等	国	玉米	的	进口	情况	，	这些	国家	玉米	生产	、	消费	的	变化	对	国际	玉米	进出口	贸易	都	有	直接	影响	。</t>
+  </si>
+  <si>
+    <t>n	v	p	n	u	v	d	a	wp	n	v	v	v	nl	v	n	wp	n	v	v	v	n	n	v	wp	p	n	n	u	wp	d	v	ns	wp	ns	u	n	b	n	n	c	ns	wp	ns	wp	ns	u	n	n	u	v	n	wp	r	n	n	v	wp	v	u	v	p	n	n	v	v	d	v	a	v	wp</t>
+  </si>
+  <si>
+    <t>在	一定	时期	内	，	一	种	商品	库存	水平	的	高低	直接	反映	了	该	商品	供需	情况	的	变化	，	是	商品	供求	格局	的	内在	反映	。	因此	，	研究	玉米	库存	变化	有助于	了解	玉米	价格	的	运行	趋势	。	一般	地	，	在	库存	水平	提高	的	时候	，	供给	宽松	；	在	库存	水平	降低	的	时候	，	供给	紧张	。	结转	库存	水平	和	玉米	价格	常常	呈现	负	相关	关系	。</t>
+  </si>
+  <si>
+    <t>p	b	n	nd	wp	m	q	n	v	n	u	n	a	v	u	r	n	n	n	u	v	wp	v	n	n	n	u	b	v	wp	c	wp	v	n	v	v	v	v	n	n	u	v	n	wp	a	u	wp	p	v	n	v	u	n	wp	v	a	wp	p	n	n	v	u	n	wp	v	a	wp	v	v	n	c	n	n	d	v	v	v	n	wp</t>
+  </si>
+  <si>
+    <t>玉米	的	成本	收益	情况	是	影响	农民	种植	积极性	的	主要	因素	之一	，	玉米	成本	对	市场	价格	有	一定	的	影响力	，	市场	粮价	过	低	，	农民	会	惜	售	；	收益	情况	会	影响	农民	对	下	一	年度	玉米	种植	安排	，	收益	增加	，	农民	可能	会	增加	种植	面积	，	反之	可能	会	减少	种植	面积	。</t>
+  </si>
+  <si>
+    <t>n	u	n	n	n	v	v	n	v	n	u	b	n	r	wp	n	n	p	n	n	v	b	u	n	wp	n	n	d	a	wp	n	v	v	v	wp	n	n	v	v	n	p	nd	m	n	n	v	v	wp	n	v	wp	n	v	v	v	v	n	wp	c	v	v	v	v	n	wp</t>
+  </si>
+  <si>
+    <t>玉米	与	其他	大宗	农产品	的	比价	关系	会	对	玉米	的	供需	产生	影响	，	进而	影响	玉米	的	产销	情况	，	导致	玉米	未来	价格	的	走势	发生	变化	，	因此	，	研究	这种	比价	关系	非常	重要	，	其中	，	玉米	与	大豆	的	种植	比价	关系	、	与	小麦	的	消费	比价	关系	最为	重要	。</t>
+  </si>
+  <si>
+    <t>n	p	r	m	n	u	n	n	v	p	n	u	n	v	v	wp	c	v	n	u	n	n	wp	v	n	nt	n	u	n	v	v	wp	c	wp	v	r	n	n	d	a	wp	r	wp	n	c	n	u	v	n	n	wp	p	n	u	v	n	n	d	a	wp</t>
+  </si>
+  <si>
+    <t>利率	变化	以及	汇率	波动	已	成为	各国	经济	生活	中	的	普遍	现象	，	而	这些	因素	的	变化	常	会	引起	商品	期货	行情	波动	。	总的来说	，	当	货币	贬值	时	，	玉米	期货	价格会	上涨	；	当	货币	升值	时	，	期货	价格	会	下跌	。	因此	，	货币	的	利率	和	汇率	是	除了	供给量	、	需求量	和	经济	周期	等	决定	玉米	期货	价格	的	主要	因素	之外	的	另	一	重要	最	纳	因素	。</t>
+  </si>
+  <si>
+    <t>n	v	c	n	v	d	v	r	n	v	nd	u	a	n	wp	c	r	n	u	v	d	v	v	n	n	n	v	wp	c	wp	p	n	v	n	wp	n	n	n	v	wp	v	n	v	n	wp	n	n	v	v	wp	c	wp	n	u	n	c	n	v	p	n	wp	n	c	n	n	u	v	n	n	n	u	b	n	nd	u	r	m	a	d	v	n	wp</t>
+  </si>
+  <si>
+    <t>世界	经济	是	在	繁荣	与	衰退	周期性	交替	中	不断	发展	的	，	经济	周期	是	现代	经济	社会	中	不可避免	的	经济	波动	，	是	现代	经济	的	基本	特征	之一	。	在	经济	周期	中	，	经济	活动	的	波动	发生	在	几乎	所有	的	经济	部门	。	因此	，	经济	周期	是	总体	经济	而	非	局部	经济	的	波动	。	衡量	总体	经济	状况	的	基本	指标	是	国民	收入	，	经济	周期	也	就	表现	为	国民收入	的	波动	，	并	由此	而	发生	产量	、	就业	、	物价	水平	、	利率	等	的	波动	。	经济	周期	在	经济	的	运行	中	周而复始	地	反复	出现	，	一般	由	复苏	、	繁荣	、	衰退	和	萧条	四	个	阶段	构成	。	受	此	影响	，	玉米	的	价格	也	会	出现	相应	的	波动	，	从	宏观	面	进行	分析	，	经济	周期	是	非常	重要	的	影响	因素	之一	。</t>
+  </si>
+  <si>
+    <t>n	n	v	p	a	c	v	n	v	nd	d	v	u	wp	n	n	v	nt	n	n	nd	i	u	n	v	wp	v	nt	n	u	a	n	r	wp	p	n	n	nd	wp	n	v	u	v	v	p	d	b	u	n	n	wp	c	wp	n	n	v	n	n	c	v	n	n	u	n	wp	v	n	n	n	u	a	n	v	n	n	wp	n	n	d	d	v	v	n	u	v	wp	c	d	c	v	n	wp	v	wp	n	n	wp	n	u	u	v	wp	n	n	p	n	u	v	nd	i	u	d	v	wp	a	p	v	wp	a	wp	v	c	a	m	q	n	v	wp	v	r	v	wp	n	u	n	d	v	v	v	u	v	wp	p	n	n	v	v	wp	n	n	v	d	a	u	v	n	r	wp</t>
+  </si>
+  <si>
+    <t>影响	运输	成本	的	原油	、	海洋	运输费率	、	运输	紧张	等	其他	因素	的	变化	，	会	对	玉米	价格	产生	影响	。</t>
+  </si>
+  <si>
+    <t>v	v	n	u	n	wp	n	n	wp	v	a	u	r	n	u	v	wp	v	p	n	n	v	v	wp</t>
+  </si>
+  <si>
+    <t>豆粕	是	大豆	经过	提取	豆油	后	得到	的	一	种	副产品	，	按照	提取	的	方法	不同	，	可以	分为	一	浸	豆粕	和	二	浸	豆粕	两	种	。	其中	以	浸提法	提取	豆油	后	的	副产品	为	一	浸	豆粕	，	而	先	以	压榨	取	油	，	再	经过	浸	提取	油	后	所得	的	副产品	为	二	浸	豆粕	。	一	浸	豆粕	的	生产	工艺	较为	先进	，	蛋白质	含量	高	，	是	国内	目前	现货	市场	上	流通	的	主要	品种	。	豆粕	一般	呈	不规则	碎片	状	，	颜色	为	浅黄色	或	浅褐色	，	味道	具有	烤	大豆	香味	。	豆粕	是	棉导粕	、	花生粕	、	菜粕	等	12	种	油粕	饲料	产品	中	产量	最	大	、	用途	最	广	的	一	种	。	作为	一	种	高	蛋白质	原料	，	豆粕	不仅	是	用作	牲畜	与	家禽	饲料	的	主要	原料	，	还	可以	用于	制作	糕点	食品	、	健康	食品	以及	化妆品	，	此外	，	豆粕	还	作为	抗菌素	原料	使用	。	近些年	，	水产	养殖	对	豆粕	的	消费	需求	也	呈	快速	增长	态势	。	随着	科学技术	的	发展	，	豆粕	的	用途	将	打开	更	大	的	空间	。	豆粕	作为	植物	蛋白	的	主要	来源	，	价格	波动	较	大	，	产业	链条	长	，	参与	企业	多	，	影响	的	范围	广	，	这	使	企业	避险	和	投资	需求	都	较为	强烈	。	大连	商品	交易所	大豆	、	豆粕	、	豆油	品种	的	相继	推出	，	完善	了	大豆	品种	体系	，	形成	了	一个	完美	的	品种	套保	体系	，	为	相关	企业	提供	了	一个	使用	方便	、	功能	齐全	的	风险	规避	场所	。</t>
+  </si>
+  <si>
+    <t>n	v	n	p	v	n	nd	v	u	m	q	n	wp	p	v	u	n	a	wp	v	v	m	q	n	c	m	q	n	m	q	wp	r	p	n	v	n	nd	u	n	v	m	q	n	wp	c	d	p	v	v	n	wp	d	p	v	v	n	nd	n	u	n	v	m	q	n	wp	m	v	n	u	v	n	d	a	wp	n	n	a	wp	v	nl	nt	n	n	nd	v	u	b	n	wp	n	a	v	a	n	n	wp	n	p	n	c	n	wp	n	v	v	n	n	wp	n	v	n	wp	n	wp	n	u	m	q	n	n	n	nd	n	d	a	wp	n	d	a	u	m	q	wp	v	m	q	a	n	n	wp	n	c	v	v	n	p	n	n	u	b	n	wp	d	v	v	v	n	n	wp	a	n	c	n	wp	c	wp	n	d	p	n	n	v	wp	nt	wp	n	v	p	n	u	v	n	d	v	b	v	n	wp	p	n	u	v	wp	n	u	n	d	v	d	a	u	n	wp	n	v	n	n	u	b	n	wp	n	v	d	a	wp	n	n	a	wp	v	n	a	wp	v	u	n	a	wp	r	v	n	v	c	v	n	d	d	a	wp	ns	n	n	n	wp	n	wp	n	n	u	d	v	wp	v	u	n	n	n	wp	v	u	m	a	u	n	v	n	wp	p	v	n	v	u	m	v	a	wp	n	a	u	n	v	n	wp</t>
+  </si>
+  <si>
+    <t>美国	、	巴西	、	阿根廷	、	中国	、	印度	、	欧盟	等	国	是	世界	主要	的	豆粕	生产	地区	，	目前	，	中国	豆粕	产量	已	占	全球	29%	6	以上	的	份额	。	近	几	年	，	中国	压榨	行业	快速	发展	，	中国	豆粕	的	发展	速度	保持	了	约	896	的	年	平均	增长	速度	。	我国	是	豆粕	的	生产	大国	。	2000年	起	，	我国	豆粕	的	年产量	首	次	突破	1	，	500万	吨	，	2001年	后	，	豆粕	产量	出现	持续	快速	增长	趋势	。	2009年	豆粕	产量	超过	美国	，	居	世界	第一	位	。	在	国内	豆粕	产量	迅猛	发展	的	同时	，	我国	豆粕	生产	布局	也	发生	了	根本性	的	转变	，	90	年代	中期	以前	东北	三	省	是	我国	豆粕	主要	生产	基地	，	产量	约	占	全国	60%	以上	，	而	到	2002年	以后	，	随着	沿海	地区	压榨	企业	的	快速	发展	，	山东	、	江苏	、	广东	等	沿海	地区	已	取代	东北	地区	成为	我国	主要	的	豆粕	生产	基地	。</t>
+  </si>
+  <si>
+    <t>ns	wp	ns	wp	ns	wp	ns	wp	ns	wp	j	u	n	v	n	b	u	n	v	n	wp	nt	wp	ns	n	n	d	v	n	m	m	nd	u	n	wp	a	m	q	wp	ns	v	n	d	v	wp	ns	n	u	v	n	v	u	d	m	u	q	a	v	n	wp	n	v	n	u	v	n	wp	nt	nd	wp	n	n	u	n	m	q	v	m	wp	m	q	wp	nt	nd	wp	n	n	v	v	b	v	n	wp	nt	n	n	v	ns	wp	v	n	m	q	wp	p	nl	n	n	a	v	u	n	wp	n	n	v	n	d	v	u	n	u	v	wp	m	n	nd	nd	nl	m	n	v	n	n	d	v	n	wp	n	d	v	n	m	nd	wp	c	p	nt	nd	wp	p	nd	n	v	n	u	b	v	wp	ns	wp	ns	wp	ns	u	nd	n	d	v	nl	n	v	n	b	u	n	v	n	wp</t>
+  </si>
+  <si>
+    <t>近	几	年	来	，	世界	豆粕	消费	呈现	跳跃性	的	增长	。	2018	/	19年	世界	豆粕	消费量	预计	为	23451万	吨	。	目前	，	豆粕	消费	占	世界	蛋白粕	总	消费量	的	60%	以上	。	2008年	前	，	欧盟	一直	是	全球	最	大	的	消费国	，	近	几	年	，	欧盟	的	豆粕	需求量	维持	在	3000万	吨	左右	的	规模	。	中国	2008/09年	的	豆粕	消费量	超过	欧盟	成为	世界	最	大	豆粕	消费	地区	。	到	2018	/	19年	豆粕	消费量	已	达到	6882万	吨	。	2004年	以后	，	东亚	国家	如	中国	、	韩国	、	日本	以及	东南亚	各国	的	豆粕	消费量	呈现	迅猛	增长	的	态势	，	这	在	很	大	程度	上	拉动	了	全球	消费	。	随着	人民	生活	水平	的	提高	，	我国	城乡	居民	对	肉	蛋	禽鱼	等	食品	的	摄取量	大幅	增加	，	促进	了	饲料	加工业	的	迅猛	发展	。	家禽	、	优质	瘦肉型	猪	所	用	饲料	迅速	增加	，	刺激	了	对	优质	蛋白	饲料	的	需求	。	我国	饼舶类	产品	很	多	，	菜籽粕	和	棉籽饼	的	产量	也	很	大	，	但	这	两	种	讲舶	都	要	经过	脱毒	后	才	能	用于	饲料	，	因此	，	目前	国内	使用	的	优质粕	主要	是	大豆粕	。	从	地区	分布	来	看	，	珠江	三角洲	和	长江	流域	地区	是	目前	我国	豆粕	的	主要	消费地	。	从	具体	省市	来	看	，	豆粕	消费	主要	集中	在	广东	、	四川	、	江苏	、	湖南	、	浙江	、	江西	、	安徽	、	湖北	、	福建	、	北京	和	上海	等	省市	。</t>
+  </si>
+  <si>
+    <t>a	m	q	nd	wp	n	n	v	v	n	u	v	wp	nt	wp	nt	n	n	n	v	v	m	q	wp	nt	wp	n	v	v	n	n	b	n	u	m	nd	wp	nt	nd	wp	j	d	v	n	d	a	u	n	wp	a	m	q	wp	j	u	n	n	v	p	m	q	m	u	n	wp	ns	nt	u	n	n	v	j	v	n	d	a	n	v	n	wp	p	nt	wp	nt	n	n	d	v	m	q	wp	nt	nd	wp	ns	n	v	ns	wp	ns	wp	ns	c	ns	r	u	n	n	v	a	v	u	n	wp	r	p	d	a	n	nd	v	u	n	v	wp	p	n	v	n	u	v	wp	n	n	n	p	n	n	n	u	n	u	n	d	v	wp	v	u	n	n	u	a	v	wp	n	wp	b	b	n	u	v	n	a	v	wp	v	u	p	b	n	n	u	n	wp	n	n	n	d	a	wp	n	c	n	u	n	d	d	a	wp	c	r	m	q	n	d	v	p	v	nd	d	v	v	n	wp	c	wp	nt	nl	v	u	n	d	v	n	wp	p	n	v	v	v	wp	ns	n	c	ns	n	n	v	nt	n	n	u	b	n	wp	p	a	n	v	v	wp	n	v	d	v	p	ns	wp	ns	wp	ns	wp	ns	wp	ns	wp	ns	wp	ns	wp	ns	wp	ns	wp	ns	c	ns	u	n	wp</t>
+  </si>
+  <si>
+    <t>目前	世界	豆粕	主要	出口国	为	阿根廷	、	巴西	、	美国	、	印度	等	国家	。	其中	，	阿根廷	和	巴西	一直	占	世界	豆粕	出口量	之	首	。	2018	/	19年	，	阿根廷	和	巴西	两	国	的	豆粕	出口量	占	到	全球	总	出口量	的	67%	，	美国	约	占	18%	，	印度	的	豆粕	出口	主要	面向	东南亚	等	地区	，	由于	内需	增长	迅猛	，	预计	出口	总量	占	全球	总量	的	2.7%	，	去年	为	2.899%	。	自	90	年代	中期	以来	，	我国	豆粕	的	产	需	状况	发生	了	显著	变化	，	1994年	以前	，	中国	是	豆粕	出口	大国	，	其	年	出口量	一般	都	超过	100万	吨	。	但	其后	几	年	国内	市场	对	豆粕	的	强劲	需求	及	国内	榨油	用	大豆	的	减少	，	导致	国内	豆粕	生产	远	不	能	满足	消费	需求	，	转而	变成	了	主要	豆粕	进口国	1997/98	年度	，	中国	豆	k	进口	400万	吨	。	从	1999年	开始	，	随着	国内	压榨	企业	不断	扩大	生产	规模	，	我国	大量	进口	大豆	用于	压榨	，	国产	豆粕	才	得以	满足	快速	膨胀	的	消费	需求	。</t>
+  </si>
+  <si>
+    <t>nt	n	n	b	n	v	ns	wp	ns	wp	ns	wp	ns	u	n	wp	r	wp	ns	c	ns	d	v	n	n	n	u	n	wp	nt	wp	nt	wp	ns	c	ns	m	n	u	n	n	v	v	n	b	n	u	m	wp	ns	d	v	m	wp	ns	u	n	v	d	v	ns	u	n	wp	c	n	v	a	wp	v	v	n	v	n	n	u	m	wp	nt	v	m	wp	p	m	n	nd	nd	wp	n	n	u	v	v	n	v	u	a	v	wp	nt	nd	wp	ns	v	n	v	n	wp	r	q	n	a	d	v	m	q	wp	c	nt	m	q	nl	n	p	n	u	a	n	c	nl	n	v	n	u	v	wp	v	nl	n	v	a	d	v	v	v	n	wp	c	v	u	b	n	n	m	n	wp	ns	n	ws	v	m	q	wp	p	nt	v	wp	p	nl	v	n	d	v	v	n	wp	n	m	v	n	v	v	wp	b	n	d	v	v	d	v	u	v	n	wp</t>
+  </si>
+  <si>
+    <t>豆粕	作为	大豆	加工	的	副产品	，	大豆	供应量	的	多少	直接	决定	着	豆粕	的	供应量	，	正常	情况	下	，	大豆	供应量	的	增加	必然	导致	豆粕	供应量	的	增加	。	大豆	的	来源	主要	有	两	块	，	一	是	国产	大豆	，	二	是	进口	大豆	。	我国	的	东北	及	黄淮	地区	是	大豆	的	主产区	，	近	几	年	，	我国	大豆	年	总产量	在	1	，	500万	吨	左右	徘徊	，	其中	商品	大豆量	约	为	600万	吨	。	我国	2018	/	19年	进口	大豆	将	达到	9080万	吨	。</t>
+  </si>
+  <si>
+    <t>n	v	n	v	u	n	wp	n	n	u	r	a	v	u	n	u	n	wp	a	n	nd	wp	n	n	u	v	d	v	n	n	u	v	wp	n	u	n	d	v	m	q	wp	m	v	b	n	wp	m	v	v	n	wp	n	u	nl	c	j	n	v	n	u	n	wp	a	m	q	wp	n	n	q	n	p	m	wp	m	q	m	v	wp	r	n	n	d	v	m	q	wp	n	nt	wp	nt	v	n	d	v	m	q	wp</t>
+  </si>
+  <si>
+    <t>大豆	价格	的	高低	直接	影响	豆粕	生产	的	成本	，	近	几	年	，	我国	许多	大型	压检	企业	选择	进口	大豆	作为	加工	原料	，	进口	大豆	价格	对	我国	豆粕	价格	的	影响	更为	明显	。</t>
+  </si>
+  <si>
+    <t>n	n	u	n	a	v	n	v	u	n	wp	a	m	q	wp	n	m	b	v	n	v	v	n	v	v	n	wp	v	n	n	p	n	n	n	u	v	d	a	wp</t>
+  </si>
+  <si>
+    <t>豆粕	当期	产量	是	一个	变量	，	它	受	制	于	大豆	供应量	、	大豆	压榨	收益	、	生产	成本	等	因素	。	一般	来讲	，	豆粕	产量	与	豆粕	价格	之间	存在	反	向	关系	，	豆粕	产量	越	大	，	价格	相对	较	低	；	相反	，	豆箱	产量	减少	，	豆粕	价格	则	上涨	。</t>
+  </si>
+  <si>
+    <t>n	n	n	v	m	n	wp	r	v	v	p	n	n	wp	n	v	n	wp	v	n	u	n	wp	a	u	wp	n	n	p	n	n	nd	v	v	p	n	wp	n	n	d	a	wp	n	d	d	a	wp	v	wp	n	n	v	wp	n	n	d	v	wp</t>
+  </si>
+  <si>
+    <t>豆粕	库存	是	构成	总产量	的	重要	部分	，	前期	库存量	的	多少	体现	着	供应量	的	紧张	程度	。	供应	短缺	则	价格	上涨	，	供应	充裕	则	价格	下降	。	由于	豆粕	具有	不易	保存	的	特点	，	一旦	豆粕	库存	增加	，	豆粕	的	价格	往往	会	调	低	。</t>
+  </si>
+  <si>
+    <t>n	n	v	v	n	u	a	n	wp	nd	n	u	r	v	u	n	u	a	n	wp	v	v	c	n	v	wp	v	a	c	n	v	wp	c	n	v	a	v	u	n	wp	c	n	n	v	wp	n	u	n	d	v	v	a	wp</t>
+  </si>
+  <si>
+    <t>我国	是	豆粕	消费	大国	，	近	几	年	，	豆粕	消费	保持	了	89%	以上	的	年	增长	速度	。	豆粕	在	饲料业	中	家禽	的	使用量	占	526	，	所以	牲畜	、	家禽	价格	的	影响	直接	构成	对	饲料	需求	的	影响	。	正常	情况	下	，	牲斋	、	家禽	的	价格	与	豆粕	价格	之间	存在	明显	的	正	相关	。	统计	显示	，	90%	以上	的	豆粕	消费	是	用于	各类	饲料	，	所以	饲料	行业	景气	度	状况	对	豆粕	需求	的	影响	非常	明显	。</t>
+  </si>
+  <si>
+    <t>n	v	n	v	n	wp	a	m	q	wp	n	v	v	u	m	nd	u	q	v	n	wp	n	p	n	nd	n	u	n	v	m	wp	c	n	wp	n	n	u	v	a	v	p	n	n	u	v	wp	a	n	nd	wp	n	wp	n	u	n	p	n	n	nd	v	a	u	a	v	wp	v	v	wp	m	nd	u	n	v	v	v	r	n	wp	c	n	n	a	v	n	p	n	n	u	v	d	a	wp</t>
+  </si>
+  <si>
+    <t>豆粕	是	大豆	的	副产品	，	每	1	吨	大豆	可以	压榨	出	大约	0.18	吨	的	豆油	和	0.8	吨	的	豆粕	，	豆粕	的	价格	与	大豆	的	价格	有	密切	的	关系	，	一般	来讲	，	每年	大豆	的	产量	都	会	影响	到	豆舶	的	价格	，	大豆	丰收	则	豆粕	价	跌	，	大豆	欠	收	则	豆粕	就	会	涨价	。	同时	，	豆油	与	豆粕	之间	也	存在	一定	程度	的	关联	，	豆油	价	好	，	豆粕	就	会	价	跌	，	豆油	滞销	，	豆粕	产量	就	将	减少	，	豆粕	价格	将	上涨	。	大豆	压榨	效益	是	决定	豆粕	供应量	的	重要	因素	之一	，	如果	油脂厂	的	压榨	效益	一直	低迷	，	那么	，	一些	厂家	会	停产	，	从而	减少	豆粕	的	市场	供应量	。</t>
+  </si>
+  <si>
+    <t>n	v	n	u	n	wp	r	m	q	n	v	v	v	d	m	q	u	n	c	m	q	u	n	wp	n	u	n	p	n	u	n	v	a	u	n	wp	a	u	wp	r	n	u	n	d	v	v	v	n	u	n	wp	n	v	c	n	n	v	wp	n	v	v	c	n	d	v	v	wp	n	wp	n	p	n	nd	d	v	b	n	u	v	wp	n	n	a	wp	n	d	v	n	v	wp	n	v	wp	n	n	d	d	v	wp	n	n	d	v	wp	n	v	n	v	v	n	n	u	a	n	r	wp	c	n	u	v	n	d	a	wp	c	wp	m	n	v	v	wp	c	v	n	u	n	n	wp</t>
+  </si>
+  <si>
+    <t>除了	大豆	、	豆油	等	相关	商品	对	豆柏	价格	影响	外	，	棉籽粕	、	花生粕	、	菜柏	等	豆粕	的	替代品	对	豆粕	价格	也	有	一定	影响	，	如果	豆粕	价格	高企	，	饲料	企业	往往	会	考虑	增加	使用	菜粕	等	替代品	。</t>
+  </si>
+  <si>
+    <t>p	n	wp	n	u	v	n	p	n	n	v	nd	wp	n	wp	n	wp	n	u	n	u	n	p	n	n	d	v	b	v	wp	c	n	n	j	wp	n	n	d	v	v	v	v	n	u	n	wp</t>
+  </si>
+  <si>
+    <t>近	几	年	，	禽流感	、	疯牛病	及	口蹄疫	的	相继	发生	以及	出于	转基因	食品	对	人体	健康	影响	的	考虑	，	越来越	多	的	国家	实施	了	新	的	食品	政策	。	这些	新	食品	政策	的	实施	，	对	养殖业	及	豆粕	的	需求	影响	都	是	非常	直接	的	。</t>
+  </si>
+  <si>
+    <t>a	m	q	wp	n	wp	n	c	n	u	d	v	c	v	n	n	p	n	a	v	u	v	wp	d	a	u	n	v	u	a	u	n	n	wp	r	a	n	n	u	v	wp	p	n	c	n	u	n	v	d	v	d	a	u	wp</t>
+  </si>
+  <si>
+    <t>亚洲	中国	非洲	北美	拉丁美洲	欧洲</t>
+  </si>
+  <si>
+    <t>本科	亚洲	粗粮	籽粒	我国	淀粉	粮食	全球	中国	非洲	拉丁美洲	饲料	中	国家	产量	蛋白质	世界	产品	作物	脂肪	全世界	人口	食粮	总产量	禾	谷类	现今	欧洲	上	面积	维生素	范围	玉米	谷物	单产	原料	北美	以上</t>
+  </si>
+  <si>
+    <t>巴西	中国	美国	阿根廷</t>
+  </si>
+  <si>
+    <t>国家	总量	玉米	巴西	总产量	粮食	全球	中国	阿根廷	全世界	美国</t>
+  </si>
+  <si>
+    <t>墨西哥	亚洲	台湾省	巴西	日本	加拿大	韩国	中国	阿根廷	埃及	美国</t>
+  </si>
+  <si>
+    <t>墨西哥	目前	亚洲	台湾省	总量	日本	水平	我国	全球	中国	出口量	2016	加拿大	进口国	美国	中	国家	趋势	巴西	2018	大国	整体	世界	进口量	年度	态势	韩国	过去	地区	阿根廷	出口国	2015	主产国	数量	玉米	埃及</t>
+  </si>
+  <si>
+    <t>京	华北	苏和皖</t>
+  </si>
+  <si>
+    <t>产地	内蒙	年份	我国	东北	华北	产量	商品率	全国	北方	大国	商品粮	世界	省区	总产量	区域	地区	苏和皖	面积	玉米	以上</t>
+  </si>
+  <si>
+    <t>中国</t>
+  </si>
+  <si>
+    <t>以来	城乡	燃料	水平	我国	淀粉	中国	出口量	饲料	进口国	2007年	趋势	18年	产量	2018	大国	整体	2017	比	进口量	年度	居民	乙醇	地区	出口国	2009年	医药	面积	国内	玉米	工业	产业	以上	消费量</t>
+  </si>
+  <si>
+    <t>中国	美国	南美</t>
+  </si>
+  <si>
+    <t>世界	主产区	情况	国家	国际	美国	南美	玉米	产量	地区	中国	供应量	因素	比重	市场	以上	中</t>
+  </si>
+  <si>
+    <t>墨西哥	巴西	日本	中国	美国</t>
+  </si>
+  <si>
+    <t>墨西哥	情况	国家	比例	国内	饲料	市场	玉米	日本	巴西	口粮	工业	中国	消费国	以上	总体	价格	主产国	需求	美国</t>
+  </si>
+  <si>
+    <t>日本	东南亚	韩国	阿根廷	美国</t>
+  </si>
+  <si>
+    <t>世界	情况	国家	国际	总量	国内	玉米	日本	东南亚	韩国	国	阿根廷	出口国	市场	需求	美国</t>
+  </si>
+  <si>
+    <t>库存	内	情况	趋势	玉米	时期	水平	高低	格局	关系	商品	价格	供求	供需	时候</t>
+  </si>
+  <si>
+    <t>情况	面积	市场	玉米	下	农民	年度	影响力	粮价	价格	积极性	收益	成本	因素</t>
+  </si>
+  <si>
+    <t>情况	走势	小麦	玉米	农产品	未来	关系	产销	大豆	价格	供需	比价</t>
+  </si>
+  <si>
+    <t>时	之外	周期	货币	玉米	利率	经济	价格会	行情	需求量	汇率	商品	价格	现象	供给量	期货	因素	中</t>
+  </si>
+  <si>
+    <t>社会	国民收入	周期	收入	水平	利率	局部	物价	因素	中	特征	产量	周期性	面	宏观	世界	现代	部门	波动	价格	指标	阶段	状况	玉米	经济	总体	国民</t>
+  </si>
+  <si>
+    <t>玉米	运输费率	海洋	原油	价格	成本	因素</t>
+  </si>
+  <si>
+    <t>交易所	大连	商品</t>
+  </si>
+  <si>
+    <t>目前	香味	植物	碎片	所得	颜色	功能	花生粕	棉导粕	大连	大豆	糕点	后	企业	饲料	空间	化妆品	中	品种	抗菌素	工艺	菜粕	链条	近些年	家禽	交易所	味道	产量	蛋白质	油粕	含量	需求	状	产品	豆粕	牲畜	态势	科学技术	风险	水产	副产品	体系	价格	市场	上	浅褐色	方法	用途	现货	国内	范围	蛋白	场所	豆油	浅黄色	油	浸提法	来源	商品	原料	产业	食品</t>
+  </si>
+  <si>
+    <t>山东	巴西	江苏	印度	中国	阿根廷	广东	美国</t>
+  </si>
+  <si>
+    <t>年产量	目前	省	我国	2001年	江苏	全球	根本性	中国	后	以后	企业	东北	美国	速度	趋势	巴西	产量	年代	全国	同时	大国	起	世界	布局	基地	豆粕	行业	2002年	国	以前	中期	地区	广东	阿根廷	2009年	山东	国内	2000年	印度	份额	沿海	以上</t>
+  </si>
+  <si>
+    <t>湖北	长江	安徽	福建	上海	浙江	日本	北京	东南亚	韩国	江苏	四川	地区	湖南	中国	广东	江西	珠江	流域	东亚</t>
+  </si>
+  <si>
+    <t>目前	城乡	大豆粕	日本	水平	我国	江苏	全球	消费国	规模	中国	以后	来	蛋白粕	饲料	后	流域	跳跃性	摄取量	国家	加工业	家禽	前	产量	2018	蛋	讲舶	棉籽饼	北京	需求	菜籽粕	三角洲	世界	优质粕	2008/09年	长江	产品	消费地	安徽	豆粕	态势	居民	东南亚	韩国	程度	四川	地区	广东	浙江	珠江	东亚	禽鱼	2008年	需求量	上	湖北	人民	省市	福建	国内	蛋白	上海	19年	饼舶类	肉	江西	2004年	猪	食品	湖南	以上	消费量</t>
+  </si>
+  <si>
+    <t>巴西	东南亚	印度	中国	阿根廷	美国</t>
+  </si>
+  <si>
+    <t>去年	目前	以来	榨油	总量	我国	全球	内需	大豆	中国	出口量	规模	企业	进口国	美国	国家	巴西	1999年	年代	首	2018	大国	需求	世界	豆粕	年度	东南亚	国	以前	中期	地区	其后	阿根廷	出口国	市场	豆	国内	状况	19年	印度	1994年</t>
+  </si>
+  <si>
+    <t>主产区	情况	豆粕	下	19年	我国	总产量	来源	2018	地区	大豆	副产品	商品	供应量	东北	大豆量</t>
+  </si>
+  <si>
+    <t>豆粕	我国	高低	大豆	原料	企业	价格	成本</t>
+  </si>
+  <si>
+    <t>之间	豆粕	变量	当期	产量	豆箱	关系	大豆	价格	供应量	收益	成本	因素</t>
+  </si>
+  <si>
+    <t>库存	前期	特点	豆粕	部分	总产量	程度	库存量	供应量	价格</t>
+  </si>
+  <si>
+    <t>情况	牲斋	速度	饲料	豆粕	牲畜	家禽	饲料业	下	我国	之间	行业	状况	使用量	大国	需求	价格	以上	中</t>
+  </si>
+  <si>
+    <t>豆舶	之间	市场	豆粕	豆油	油脂厂	厂家	产量	程度	关系	同时	大豆	副产品	效益	供应量	价格	价	因素</t>
+  </si>
+  <si>
+    <t>菜粕	饲料	豆粕	豆柏	豆油	菜柏	企业	花生粕	商品	大豆	棉籽粕	替代品	价格	外</t>
+  </si>
+  <si>
+    <t>口蹄疫	国家	政策	疯牛病	豆粕	人体	禽流感	转基因	食品	需求	养殖业</t>
+  </si>
+  <si>
+    <t>2015	以来	总量	之间	年度	玉米	19年	2010	全球	未来	16年	工业	王	产业	需求	方面	饲料	以上	消费量</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>语料原文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相关介绍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玉米为禾本科，属一年生草本植物。在全球三大谷物中，玉米总产量和平均单产均居世界首位。中国的玉米栽培面积居世界第一位，总产量均居世界第二位。在世界谷类作物中，玉米的种植范围广。玉米的播种面积以北美最多，其次为亚洲、拉丁美洲、欧洲等。玉米占世界粗粮产量的65%以上，占我国粗粮产量的90%。玉米籽粒中含有70-75%的淀粉，10%左右的蛋白质，4-59%的脂肪，2%左右的多种维生素。以玉米为原料制成的加工产品有3000种以上。玉米是制造复合饲料的最主要原料，一般占65%-70%玉米也是世界上最重要的食粮之一，特别是一些非洲、拉丁美洲国家。现今全世界约有三分之一人口以玉米为主要粮食。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全球生产情况</t>
-  </si>
-  <si>
-    <t>全世界每年种植玉米1.91多亿公顷，总产量11亿多吨，约占全球粮食总量的309%-35%，主要分布国家有美国、中国、巴西、阿根廷，这四个国家的总产量约占全球总产量的7096左右，其中美国约占35%，中国占23%左右。</t>
-  </si>
-  <si>
-    <t>全球进出口情况</t>
-  </si>
-  <si>
-    <t>在过去的几年中，全球玉米的出口总量保持在1.2-1.7亿吨，并有逐年上升趋势。从出口国看，美国、阿根廷和巴西等玉米主产国家也是玉米出口大国。美国年出口玉米在5000-6000万吨左右，占全球玉米贸易总量的30%-40%6，并呈现逐年增加态势。巴西和阿根廷年均出口约为2000-3000万吨，并有逐年上升趋势。中国虽然是世界第二大玉米主产国，但中国同样是玉米消费大国，因此我国出口量极少。玉米的主要进口国集中在亚洲及欧盟地区，其中日本年均进口量约为1400-1700万吨，主要来自美国；韩国年进口量约为700-1000万吨，主要来自美国。近年来墨西哥玉米进口数量逐年攀升，维持在800-100吨水平，欧盟在2015/16年度、2016/17年度、2017/18年度至2018/9年度进口玉米数量显著增长，目前年进口量超过2000万吨，埃及玉米年进口整体呈增长趋势，进口量在700-1000万吨，中国台湾省年进口量400-500万吨，加拿大100-200万吨。</t>
-  </si>
-  <si>
-    <t>全球消费情况</t>
-  </si>
-  <si>
-    <t>全球每年玉米总消费量从1999/2000年度开始就保持在6亿吨以上，2009/10年度以来消费量超过8亿吨，2016/17年度消费量达到10亿吨以上。玉米的消费主要有四方面，即食用、饲用、工业加工及种用。玉米是“饲料之王”，2010/11年度以来全球词用玉米消费超过5吨，2015/16年饲用玉米消费超过6亿吨，2018/19年超过7亿吨，约占玉米消费总量的60%，未来随着全球玉米加工产业的发展，对玉米消费的需求还会增加，产需之间的矛盾会更加突出。</t>
-  </si>
-  <si>
-    <t>国内生产情况</t>
-  </si>
-  <si>
-    <t>我国是玉米生产大国，总产量居世界第二，玉米生产区域分布广泛，北方的辽、吉、黑、蒙、晋、冀、鲁、豫8省区生产了全国70%以上的玉米，尤其是东北地区（含内蒙），常年玉米播种面积为1000-1400万公顷，正常年份玉米产量为9000-12000万吨左右，占全国玉米总产量的40%左右，是我国最大的玉米商品粮产地。华北黄淮地区（包括京、津、冀、鲁、豫、苏和皖）常年玉米播种面积为1000-1100万公顷，正常年份玉米产量为5000-7000万吨左右，产量约占全国总产量的30%，但商品率低于东北地区。</t>
-  </si>
-  <si>
-    <t>国内消费情况</t>
-  </si>
-  <si>
-    <t>我国作为玉米消费大国，玉米消费主要用于饲料生产和工业加工消费，者占比达90%以上。饲用玉米消费整体维持逐年增长的趋势，到2018/19年度饲用玉米消费增加至近2亿吨，而随着城乡居民生活水平的提高，包括玉米淀粉、造纸、酿造、医药、燃料乙醇等玉米深加工得到了快速发展，且深加工产业玉米消费量逐年增加。我国调减了部分非优势地区玉米种植面积，玉米产量于2017/18年以来出现了小幅减少。与消费量增长相匹配。2007年以来，国内玉米出口量大幅下降，2009年以来中国玉米进口量迅速增加，中国已经由玉米净出口国转变成为净进口国。</t>
-  </si>
-  <si>
-    <t>玉米供给</t>
-  </si>
-  <si>
-    <t>从历年来的生产情况看，在国际玉米市场中，美国的产量占30%以上，中国的产量占近25%左右，南美的产量占10%-15%，成为世界玉米的主产区，其产量和供应量对国际市场的影响较大，特别是美国的玉米产量成为影响国际供给最为重要的因素。其他国家和地区的产量比重都较低，对国际市场影响较小。</t>
-  </si>
-  <si>
-    <t>玉米需求</t>
-  </si>
-  <si>
-    <t>美国和中国既是玉米的主产国，也是主要消费国，对玉米消费较多的国家还有欧盟、日本、巴西、墨西哥等国家，这些国家消费需求的变化对玉米价格的影响较大，特别是近年来，各主要消费国玉米深加工工业发展迅速，大大推动了玉米消费需求的增加。从国内情况来看，玉米消费主要来自口粮、饲料和工业加工。其中，口粮消费总体变化不大，对市场的影响相对较小；饲料用玉米所占的比例最高，达70%以上，饲料用玉米需求的变化对市场的影响比较大；工业加工用玉米比例占289左右，对市场的影响也非常显著。</t>
-  </si>
-  <si>
-    <t>玉米进出口</t>
-  </si>
-  <si>
-    <t>玉米进出口对市场的影响非常大。玉米进口会增加国内供给总量，玉米出口会导致需求总量增加。对国际市场而言，重点关注美国、阿根廷等世界主要玉米出口国和日本、韩国、东南亚等国玉米的进口情况，这些国家玉米生产、消费的变化对国际玉米进出口贸易都有直接影响。</t>
-  </si>
-  <si>
-    <t>玉米库存</t>
-  </si>
-  <si>
-    <t>在一定时期内，一种商品库存水平的高低直接反映了该商品供需情况的变化，是商品供求格局的内在反映。因此，研究玉米库存变化有助于了解玉米价格的运行趋势。一般地，在库存水平提高的时候，供给宽松；在库存水平降低的时候，供给紧张。结转库存水平和玉米价格常常呈现负相关关系。</t>
-  </si>
-  <si>
-    <t>玉米成本收益情况</t>
-  </si>
-  <si>
-    <t>玉米的成本收益情况是影响农民种植积极性的主要因素之一，玉米成本对市场价格有一定的影响力，市场粮价过低，农民会惜售；收益情况会影响农民对下一年度玉米种植安排，收益增加，农民可能会增加种植面积，反之可能会减少种植面积。</t>
-  </si>
-  <si>
-    <t>与其他谷物比价关系</t>
-  </si>
-  <si>
-    <t>玉米与其他大宗农产品的比价关系会对玉米的供需产生影响，进而影响玉米的产销情况，导致玉米未来价格的走势发生变化，因此，研究这种比价关系非常重要，其中，玉米与大豆的种植比价关系、与小麦的消费比价关系最为重要。</t>
-  </si>
-  <si>
-    <t>金融货币因素</t>
-  </si>
-  <si>
-    <t>利率变化以及汇率波动已成为各国经济生活中的普遍现象，而这些因素的变化常会引起商品期货行情波动。总的来说，当货币贬值时，玉米期货价格会上涨；当货币升值时，期货价格会下跌。因此，货币的利率和汇率是除了供给量、需求量和经济周期等决定玉米期货价格的主要因素之外的另一重要最纳因素。</t>
-  </si>
-  <si>
-    <t>经济周期</t>
-  </si>
-  <si>
-    <t>世界经济是在繁荣与衰退周期性交替中不断发展的，经济周期是现代经济社会中不可避免的经济波动，是现代经济的基本特征之一。在经济周期中，经济活动的波动发生在几乎所有的经济部门。因此，经济周期是总体经济而非局部经济的波动。衡量总体经济状况的基本指标是国民收入，经济周期也就表现为国民收入的波动，并由此而发生产量、就业、物价水平、利率等的波动。经济周期在经济的运行中周而复始地反复出现，一般由复苏、繁荣、衰退和萧条四个阶段构成。受此影响，玉米的价格也会出现相应的波动，从宏观面进行分析，经济周期是非常重要的影响因素之一。</t>
-  </si>
-  <si>
-    <t>贮存、运输成本</t>
-  </si>
-  <si>
-    <t>影响运输成本的原油、海洋运输费率、运输紧张等其他因素的变化，会对玉米价格产生影响。</t>
-  </si>
-  <si>
-    <t>产品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玉米</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>豆粕是大豆经过提取豆油后得到的一种副产品，按照提取的方法不同，可以分为一浸豆粕和二浸豆粕两种。其中以浸提法提取豆油后的副产品为一浸豆粕，而先以压榨取油，再经过浸提取油后所得的副产品为二浸豆粕。一浸豆粕的生产工艺较为先进，蛋白质含量高，是国内目前现货市场上流通的主要品种。豆粕一般呈不规则碎片状，颜色为浅黄色或浅褐色，味道具有烤大豆香味。豆粕是棉导粕、花生粕、菜粕等12种油粕饲料产品中产量最大、用途最广的一种。作为一种高蛋白质原料，豆粕不仅是用作牲畜与家禽饲料的主要原料，还可以用于制作糕点食品、健康食品以及化妆品，此外，豆粕还作为抗菌素原料使用。近些年，水产养殖对豆粕的消费需求也呈快速增长态势。随着科学技术的发展，豆粕的用途将打开更大的空间。豆粕作为植物蛋白的主要来源，价格波动较大，产业链条长，参与企业多，影响的范围广，这使企业避险和投资需求都较为强烈。大连商品交易所大豆、豆粕、豆油品种的相继推出，完善了大豆品种体系，形成了一个完美的品种套保体系，为相关企业提供了一个使用方便、功能齐全的风险规避场所。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>美国、巴西、阿根廷、中国、印度、欧盟等国是世界主要的豆粕生产地区，目前，中国豆粕产量已占全球29%6以上的份额。近几年，中国压榨行业快速发展，中国豆粕的发展速度保持了约896的年平均增长速度。我国是豆粕的生产大国。2000年起，我国豆粕的年产量首次突破1，500万吨，2001年后，豆粕产量出现持续快速增长趋势。2009年豆粕产量超过美国，居世界第一位。在国内豆粕产量迅猛发展的同时，我国豆粕生产布局也发生了根本性的转变，90年代中期以前东北三省是我国豆粕主要生产基地，产量约占全国60%以上，而到2002年以后，随着沿海地区压榨企业的快速发展，山东、江苏、广东等沿海地区已取代东北地区成为我国主要的豆粕生产基地。</t>
-  </si>
-  <si>
-    <t>消费情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>近几年来，世界豆粕消费呈现跳跃性的增长。2018/19年世界豆粕消费量预计为23451万吨。目前，豆粕消费占世界蛋白粕总消费量的60%以上。2008年前，欧盟一直是全球最大的消费国，近几年，欧盟的豆粕需求量维持在3000万吨左右的规模。中国2008/09年的豆粕消费量超过欧盟成为世界最大豆粕消费地区。到2018/19年豆粕消费量已达到6882万吨。2004年以后，东亚国家如中国、韩国、日本以及东南亚各国的豆粕消费量呈现迅猛增长的态势，这在很大程度上拉动了全球消费。随着人民生活水平的提高，我国城乡居民对肉蛋禽鱼等食品的摄取量大幅增加，促进了饲料加工业的迅猛发展。家禽、优质瘦肉型猪所用饲料迅速增加，刺激了对优质蛋白饲料的需求。我国饼舶类产品很多，菜籽粕和棉籽饼的产量也很大，但这两种讲舶都要经过脱毒后才能用于饲料，因此，目前国内使用的优质粕主要是大豆粕。从地区分布来看，珠江三角洲和长江流域地区是目前我国豆粕的主要消费地。从具体省市来看，豆粕消费主要集中在广东、四川、江苏、湖南、浙江、江西、安徽、湖北、福建、北京和上海等省市。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出口情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前世界豆粕主要出口国为阿根廷、巴西、美国、印度等国家。其中，阿根廷和巴西一直占世界豆粕出口量之首。2018/19年，阿根廷和巴西两国的豆粕出口量占到全球总出口量的67%，美国约占18%，印度的豆粕出口主要面向东南亚等地区，由于内需增长迅猛，预计出口总量占全球总量的2.7%，去年为2.899%。自90年代中期以来，我国豆粕的产需状况发生了显著变化，1994年以前，中国是豆粕出口大国，其年出口量一般都超过100万吨。但其后几年国内市场对豆粕的强劲需求及国内榨油用大豆的减少，导致国内豆粕生产远不能满足消费需求，转而变成了主要豆粕进口国 1997/98年度，中国豆k进口400万吨。从1999年开始，随着国内压榨企业不断扩大生产规模，我国大量进口大豆用于压榨，国产豆粕才得以满足快速膨胀的消费需求。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大豆供应量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>豆粕作为大豆加工的副产品，大豆供应量的多少直接决定着豆粕的供应量，正常情况下，大豆供应量的增加必然导致豆粕供应量的增加。大豆的来源主要有两块，一是国产大豆，二是进口大豆。我国的东北及黄淮地区是大豆的主产区，近几年，我国大豆年总产量在1，500万吨左右徘徊，其中商品大豆量约为600万吨。我国2018/19年进口大豆将达到9080万吨。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大豆价格</t>
-  </si>
-  <si>
-    <t>大豆价格的高低直接影响豆粕生产的成本，近几年，我国许多大型压检企业选择进口大豆作为加工原料，进口大豆价格对我国豆粕价格的影响更为明显。</t>
-  </si>
-  <si>
-    <t>豆粕产量</t>
-  </si>
-  <si>
-    <t>豆粕当期产量是一个变量，它受制于大豆供应量、大豆压榨收益、生产成本等因素。一般来讲，豆粕产量与豆粕价格之间存在反向关系，豆粕产量越大，价格相对较低；相反，豆箱产量减少，豆粕价格则上涨。</t>
-  </si>
-  <si>
-    <t>豆粕库存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>豆粕库存是构成总产量的重要部分，前期库存量的多少体现着供应量的紧张程度。供应短缺则价格上涨，供应充裕则价格下降。由于豆粕具有不易保存的特点，一旦豆粕库存增加，豆粕的价格往往会调低。</t>
-  </si>
-  <si>
-    <t>豆粕消费情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我国是豆粕消费大国，近几年，豆粕消费保持了89%以上的年增长速度。豆粕在饲料业中家禽的使用量占526，所以牲畜、家禽价格的影响直接构成对饲料需求的影响。正常情况下，牲斋、家禽的价格与豆粕价格之间存在明显的正相关。统计显示，90%以上的豆粕消费是用于各类饲料，所以饲料行业景气度状况对豆粕需求的影响非常明显。</t>
-  </si>
-  <si>
-    <t>豆粕与大豆、豆油的比价关系</t>
-  </si>
-  <si>
-    <t>豆粕是大豆的副产品，每1吨大豆可以压榨出大约0.18吨的豆油和0.8吨的豆粕，豆粕的价格与大豆的价格有密切的关系，一般来讲，每年大豆的产量都会影响到豆舶的价格，大豆丰收则豆粕价跌，大豆欠收则豆粕就会涨价。同时，豆油与豆粕之间也存在一定程度的关联，豆油价好，豆粕就会价跌，豆油滞销，豆粕产量就将减少，豆粕价格将上涨。大豆压榨效益是决定豆粕供应量的重要因素之一，如果油脂厂的压榨效益一直低迷，那么，一些厂家会停产，从而减少豆粕的市场供应量。</t>
-  </si>
-  <si>
-    <t>豆粕替代品价格的影响</t>
-  </si>
-  <si>
-    <t>除了大豆、豆油等相关商品对豆柏价格影响外，棉籽粕、花生粕、菜柏等豆粕的替代品对豆粕价格也有一定影响，如果豆粕价格高企，饲料企业往往会考虑增加使用菜粕等替代品。</t>
-  </si>
-  <si>
-    <t>相关的农业、贸易、食品政策</t>
-  </si>
-  <si>
-    <t>近几年，禽流感、疯牛病及口蹄疫的相继发生以及出于转基因食品对人体健康影响的考虑，越来越多的国家实施了新的食品政策。这些新食品政策的实施，对养殖业及豆粕的需求影响都是非常直接的。</t>
-  </si>
-  <si>
-    <t>豆粕</t>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分词结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>词性结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实体识别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他名词</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{玉米,为,禾本科,，,属,一年,生,草本植物,。,在,全球,三大,谷物,中,，,玉米,总产量,和,平均,单产,均,居,世界,首位,。,中国,的,玉米,栽培,面积,居,世界,第一位,，,总产量,均,居,世界,第二位,。,在,世界,谷类,作物,中,，,玉米,的,种植,范围,广,。,玉米,的,播种,面积,以,北美,最多,，,其次,为,亚洲,、,拉丁美洲,、,欧洲,等,。,玉米,占,世界,粗粮,产量,的,65%,以上,，,占,我,国,粗粮,产量,的,90%,。,玉米,籽粒,中,含有,70,-,75%,的,淀粉,，,10%,左右,的,蛋白质,，,4,-,59%,的,脂肪,，,2%,左右,的,多种,维生素,。,以,玉米,为,原料,制成,的,加工,产品,有,3000种,以上,。,玉米,是,制造,复合,饲料,的,最,主要,原料,，,一般,占,65%,-,70%,玉米,也是,世界上,最,重要,的,食粮,之,一,，,特别,是,一些,非洲,、,拉丁美洲,国家,。,现今,全世界,约,有,三分之一,人口,以,玉米,为,主要,粮食,。}</t>
-  </si>
-  <si>
-    <t>{n,v,n,w,v,",n,n,w,p,n,m,n,f,w,n,n,c,a,n,d,v,n,n,w,",u,n,vn,n,v,n,m,w,n,d,v,n,m,w,p,n,n,n,f,w,n,u,vn,n,a,w,n,u,vn,n,p,ns,a,w,r,v,",w,",w,",u,w,n,v,n,n,n,u,m,f,w,v,r,n,n,n,u,m,w,n,n,f,v,m,w,m,u,n,w,m,f,u,nz,w,m,w,m,u,n,w,m,f,u,m,n,w,p,n,v,n,v,u,vn,n,v,m,f,w,n,v,v,vn,n,u,d,a,n,w,ad,v,m,w,m,n,v,s,d,a,u,n,u,m,w,d,v,m,",w,",n,w,t,n,d,v,m,n,p,n,v,a,n,w}</t>
-  </si>
-  <si>
-    <t>{一年,中国,亚洲,拉丁美洲,欧洲,非洲,拉丁美洲}</t>
-  </si>
-  <si>
-    <t>{蛋白质}</t>
-  </si>
-  <si>
-    <t>{全世界,每年,种植,玉米,1.91多亿公顷,，,总产量,11亿多吨,，,约,占,全球,粮食,总量,的,309%,-,35%,，,主要,分布,国家,有,美国,、,中国,、,巴西,、,阿根廷,，,这,四个,国家,的,总产量,约,占,全球,总产量,的,7096,左右,，,其中,美国,约,占,35%,，,中国,占,23%,左右,。}</t>
-  </si>
-  <si>
-    <t>{n,",v,n,m,w,n,m,w,d,v,n,n,n,u,m,w,m,w,ad,v,n,v,",w,",w,",w,",w,r,m,n,u,n,d,v,n,n,u,m,f,w,r,",d,v,m,w,",v,m,f,w}</t>
-  </si>
-  <si>
-    <t>{每年,美国,中国,巴西,阿根廷,美国,中国}</t>
-  </si>
-  <si>
-    <t>{}</t>
-  </si>
-  <si>
-    <t>{在,过去,的,几,年中,，,全球,玉米,的,出口,总量,保持,在,1.2,-,1.7亿吨,，,并,有,逐年,上升,趋势,。,从,出口,国,看,，,美国,、,阿根廷,和,巴西,等,玉米,主产,国家,也是,玉米,出口,大国,。,美国,年,出口,玉米,在,5000,-,6000万吨,左右,，,占,全球,玉米,贸易,总量,的,30%,-,40%6,，,并,呈现,逐年,增加,态势,。,巴西,和,阿根廷,年均,出口,约,为,2000,-,3000万吨,，,并,有,逐年,上升,趋势,。,中国,虽然,是,世界,第二,大玉米,主产,国,，,但,中国,同样,是,玉米,消费,大国,，,因此,我,国,出口,量,极少,。,玉米,的,主要,进口,国,集中,在,亚洲,及,欧盟,地区,，,其中,日本,年均,进口,量,约,为,1400,-,1700万吨,，,主要,来自,美国,；,韩国,年,进口,量,约,为,700,-,1000万吨,，,主要,来自,美国,。,近年,来,墨西哥,玉米,进口,数量,逐年,攀升,，,维持,在,800,-,100吨,水平,，,欧盟,在,2015,/,16,年度,、,2016,/,17,年度,、,2017,/,18,年度,至,2018,/,9,年度,进口,玉米,数量,显著,增长,，,目前,年,进口,量,超过,2000万吨,，,埃及,玉米,年,进口,整体,呈,增长,趋势,，,进口,量,在,700,-,1000万吨,，,中国,台湾省,年,进口,量,400,-,500万吨,，,加拿大,100,-,200万吨,。}</t>
-  </si>
-  <si>
-    <t>{p,t,u,m,",w,n,n,u,vn,n,v,p,m,w,m,w,c,v,d,v,n,w,p,vn,n,v,w,",w,",c,",u,n,vn,n,v,n,vn,n,w,",n,v,n,v,m,w,m,f,w,v,n,n,vn,n,u,m,w,m,w,c,v,d,v,n,w,",c,",vn,vn,d,v,m,w,m,w,c,v,d,v,n,w,",c,v,n,m,",v,n,w,c,",d,v,n,v,n,w,c,r,n,vn,n,a,w,n,u,a,vn,n,v,p,",c,",n,w,f,",n,vn,n,d,v,m,w,m,w,ad,v,",w,",n,vn,n,d,v,m,w,m,w,ad,v,",w,",v,ns,n,vn,n,d,v,w,v,p,m,w,m,n,w,",p,m,w,q,n,w,m,w,m,n,w,m,w,m,n,v,m,w,q,n,vn,n,n,ad,v,w,t,q,vn,n,v,m,w,",n,q,vn,n,v,vn,n,w,vn,n,v,m,w,m,w,",",q,vn,n,m,w,m,w,",m,w,m,w}</t>
-  </si>
-  <si>
-    <t>{年中,美国,阿根廷,巴西,美国,巴西,阿根廷,中国,大玉米,中国,亚洲,欧盟,日本,美国,韩国,美国,近年,欧盟,埃及,中国,台湾省,加拿大}</t>
-  </si>
-  <si>
-    <t>{全球,每年,玉米,总,消费量,从,1999,/,2000年度,开始,就,保持,在,6亿吨,以上,，,2009,/,10,年度,以来,消费量,超过,8亿吨,，,2016,/,17,年度,消费量,达到,10亿吨,以上,。,玉米,的,消费,主要,有,四方面,，,即,食用,、,饲用,、,工业,加工,及,种用,。,玉米,是,“,饲料,之,王,”,，,2010,/,11,年度,以来,全球,词,用,玉米,消费,超过,5吨,，,2015,/,16年,饲用,玉米,消费,超过,6亿吨,，,2018,/,19年,超过,7亿吨,，,约,占,玉米,消费,总量,的,60%,，,未来,随着,全球,玉米,加工,产业,的,发展,，,对,玉米,消费,的,需求,还会,增加,，,产,需,之间,的,矛盾,会,更加,突出,。}</t>
-  </si>
-  <si>
-    <t>{n,",n,a,n,p,m,w,",v,d,v,p,m,f,w,m,w,m,n,f,n,v,m,w,m,w,m,n,n,v,m,f,w,n,u,vn,ad,v,m,w,v,vn,w,vn,w,n,vn,c,vn,w,n,v,w,n,u,n,w,w,m,w,q,n,f,n,n,p,n,vn,v,m,w,m,w,",vn,n,vn,v,m,w,m,w,",v,m,w,d,v,n,vn,n,u,m,w,t,p,n,n,vn,n,u,vn,w,p,n,vn,u,n,v,v,w,v,v,f,u,n,v,d,a,w}</t>
-  </si>
-  <si>
-    <t>{每年,2000年度,16年,19年}</t>
-  </si>
-  <si>
-    <t>{我,国,是,玉米,生产,大国,，,总产量,居,世界,第二,，,玉米,生产,区域,分布,广泛,，,北方,的,辽,、,吉,、,黑,、,蒙,、,晋,、,冀,、,鲁,、,豫,8,省区,生产,了,全国,70%,以上,的,玉米,，,尤其,是,东北地区,（,含,内蒙,）,，,常年,玉米,播种,面积,为,1000,-,1400万公顷,，,正常,年份,玉米,产量,为,9000,-,12000万吨,左右,，,占,全国,玉米,总产量,的,40%,左右,，,是,我,国,最大,的,玉米,商品,粮,产地,。,华北,黄淮地区,（,包括,京,、,津,、,冀,、,鲁,、,豫,、,苏和皖,）,常年,玉米,播种,面积,为,1000,-,1100万公顷,，,正常,年份,玉米,产量,为,5000,-,7000万吨,左右,，,产量,约,占,全国,总产量,的,30%,，,但,商品率,低于,东北地区,。}</t>
-  </si>
-  <si>
-    <t>{r,n,v,n,vn,n,w,n,v,n,m,w,n,vn,n,vn,a,w,s,u,ns,w,a,w,an,w,ns,w,",w,",w,ns,w,ns,m,n,v,u,n,m,f,u,n,w,d,v,",w,v,",w,w,d,n,v,n,v,m,w,m,w,a,n,n,n,v,m,w,m,f,w,v,n,n,n,u,m,f,w,v,r,n,a,u,n,n,n,n,w,",",w,v,ns,w,",w,",w,ns,w,",w,",w,n,n,v,n,v,m,w,m,w,a,n,n,n,v,m,w,m,f,w,n,d,v,n,n,u,m,w,c,n,v,",w}</t>
-  </si>
-  <si>
-    <t>{晋,冀,东北地区,内蒙,华北,黄淮地区,津,冀,豫,苏和皖,东北地区}</t>
-  </si>
-  <si>
-    <t>{我,国,作为,玉米,消费,大国,，,玉米,消费,主要,用于,饲料,生产,和,工业,加工,消费,，,者,占,比达,90%,以上,。,饲用,玉米,消费,整体,维持,逐年,增长,的,趋势,，,到,2018,/,19,年度,饲用,玉米,消费,增加,至,近,2亿吨,，,而,随着,城乡,居民,生活水平,的,提高,，,包括,玉米淀粉,、,造纸,、,酿造,、,医药,、,燃料,乙醇,等,玉米,深加工,得到,了,快速,发展,，,且,深加工,产业,玉米,消费量,逐年,增加,。,我,国,调减,了,部分,非优势地区,玉米,种植,面积,，,玉米,产量,于,2017,/,18年以来,出现,了,小幅,减少,。,与,消费量,增长,相匹配,。,2007年以来,，,国内,玉米,出口,量,大幅,下降,，,2009年以来,中国,玉米,进口,量,迅速,增加,，,中国,已经,由,玉米,净,出口,国,转变,成为,净,进口,国,。}</t>
-  </si>
-  <si>
-    <t>{r,n,p,n,vn,n,w,n,vn,ad,v,n,vn,c,n,vn,vn,w,n,v,v,m,f,w,vn,n,vn,n,v,d,v,u,n,w,p,m,w,q,n,vn,n,vn,v,v,vd,m,w,c,p,n,n,n,u,vn,w,v,nz,w,vn,w,vn,w,n,w,n,n,u,n,vn,v,u,a,vn,w,c,vn,n,n,n,d,v,w,r,n,v,u,n,n,n,vn,n,w,n,n,p,m,w,",v,u,d,v,w,p,n,v,v,w,",w,s,n,vn,n,d,v,w,",",n,vn,n,ad,v,w,",d,p,n,a,vn,n,v,v,a,vn,n,w}</t>
-  </si>
-  <si>
-    <t>{18年以来,2007年以来,2009年以来,中国,中国}</t>
-  </si>
-  <si>
-    <t>{玉米淀粉}</t>
-  </si>
-  <si>
-    <t>{从,历年来,的,生产,情况,看,，,在,国际,玉米,市场,中,，,美国,的,产量,占,30%,以上,，,中国,的,产量,占,近,25%,左右,，,南美,的,产量,占,10%,-,15%,，,成为,世界,玉米,的,主产区,，,其,产量,和,供应量,对,国际市场,的,影响,较大,，,特别,是,美国,的,玉米,产量,成为,影响,国际,供给,最为,重要,的,因素,。,其他,国家,和,地区,的,产量,比重,都,较,低,，,对,国际市场,影响,较小,。}</t>
-  </si>
-  <si>
-    <t>{p,t,u,vn,n,v,w,p,n,n,n,f,w,",u,n,v,m,f,w,",u,n,v,vd,m,f,w,ns,u,n,v,m,w,m,w,v,n,n,u,n,w,r,n,c,n,p,n,u,vn,a,w,d,v,",u,n,n,v,v,n,vn,d,a,u,n,w,r,n,c,n,u,n,n,d,d,a,w,p,n,vn,a,w}</t>
-  </si>
-  <si>
-    <t>{美国,中国,美国}</t>
-  </si>
-  <si>
-    <t>{美国,和,中国,既是,玉米,的,主产,国,，,也是,主要,消费,国,，,对,玉米,消费,较多,的,国家,还有,欧盟,、,日本,、,巴西,、,墨西哥,等,国家,，,这些,国家,消费,需求,的,变化,对,玉米,价格,的,影响,较大,，,特别,是,近年,来,，,各,主要,消费,国,玉米,深加工,工业,发展,迅速,，,大大,推动,了,玉米,消费,需求,的,增加,。,从,国内,情况,来看,，,玉米,消费,主要,来自,口粮,、,饲料,和,工业,加工,。,其中,，,口粮,消费,总体,变化,不大,，,对,市场,的,影响,相对,较小,；,饲料,用,玉米,所,占,的,比例,最高,，,达,70%,以上,，,饲料,用,玉米,需求,的,变化,对,市场,的,影响,比较,大,；,工业,加工,用,玉米,比例,占,289,左右,，,对,市场,的,影响,也,非常,显著,。}</t>
-  </si>
-  <si>
-    <t>{",c,",v,n,u,vn,n,w,v,a,vn,n,w,p,n,vn,a,u,n,v,",w,",w,",w,",u,n,w,r,n,vn,n,u,vn,p,n,n,u,vn,a,w,d,v,",v,w,r,a,vn,n,n,vn,n,v,a,w,d,v,u,n,vn,n,u,vn,w,p,s,n,v,w,n,vn,ad,v,n,w,n,c,n,vn,w,f,w,n,vn,n,vn,a,w,p,n,u,vn,d,a,w,n,p,n,u,v,u,n,a,w,v,m,f,w,n,p,n,n,u,vn,p,n,u,vn,d,a,w,n,vn,p,n,n,v,m,f,w,p,n,u,vn,d,d,a,w}</t>
-  </si>
-  <si>
-    <t>{美国,中国,欧盟,日本,巴西,墨西哥,近年}</t>
-  </si>
-  <si>
-    <t>{玉米,进出口,对,市场,的,影响,非常,大,。,玉米,进口,会,增加,国内,供给,总量,，,玉米,出口,会导致,需求,总量,增加,。,对,国际市场,而言,，,重点,关注,美国,、,阿根廷,等,世界,主要,玉米,出口,国,和,日本,、,韩国,、,东南亚,等,国,玉米,的,进口,情况,，,这些,国家,玉米,生产,、,消费,的,变化,对,国际,玉米,进出口,贸易,都,有,直接影响,。}</t>
-  </si>
-  <si>
-    <t>{n,vn,p,n,u,vn,d,a,w,n,vn,v,v,s,vn,n,w,n,vn,v,n,n,v,w,p,n,u,w,d,v,",w,",u,n,a,n,vn,n,c,",w,",w,",u,n,n,u,vn,n,w,r,n,n,vn,w,vn,u,vn,p,n,n,vn,vn,d,v,v,w}</t>
-  </si>
-  <si>
-    <t>{美国,阿根廷,日本,韩国,东南亚}</t>
-  </si>
-  <si>
-    <t>{在,一定,时期,内,，,一种,商品,库存,水平,的,高低,直接,反映,了,该,商品,供需,情况,的,变化,，,是,商品,供求,格局,的,内在,反映,。,因此,，,研究,玉米,库存,变化,有助于,了解,玉米,价格,的,运行,趋势,。,一般地,，,在,库存,水平,提高,的,时候,，,供给,宽松,；,在,库存,水平,降低,的,时候,，,供给,紧张,。,结转库存,水平,和,玉米,价格,常常,呈现,负,相关,关系,。}</t>
-  </si>
-  <si>
-    <t>{p,a,n,f,w,m,n,vn,n,u,n,ad,v,u,r,n,n,n,u,vn,w,v,n,vn,n,u,a,vn,w,c,w,v,n,n,vn,v,v,n,n,u,vn,n,w,d,w,p,vn,n,v,u,n,w,v,a,w,p,vn,n,v,u,n,w,v,an,w,nz,n,c,n,n,d,v,a,vn,n,w}</t>
-  </si>
-  <si>
-    <t>{结转库存}</t>
-  </si>
-  <si>
-    <t>{玉米,的,成本,收益,情况,是,影响,农民,种植,积极性,的,主要,因素,之,一,，,玉米,成本,对,市场价格,有,一定,的,影响力,，,市场,粮价,过低,，,农民,会,惜售,；,收益,情况,会,影响,农民,对,下,一,年度,玉米,种植,安排,，,收益,增加,，,农民,可能会,增加,种植,面积,，,反,之,可能会,减少,种植,面积,。}</t>
-  </si>
-  <si>
-    <t>{n,u,n,n,n,v,v,n,v,n,u,a,n,u,m,w,n,n,p,n,v,a,u,n,w,n,n,v,w,n,v,v,w,n,n,v,v,n,p,f,m,n,n,vn,vn,w,n,v,w,n,v,v,vn,n,w,c,c,v,v,vn,n,w}</t>
-  </si>
-  <si>
-    <t>{玉米,与,其他,大宗农产品,的,比价,关系,会,对,玉米,的,供需,产生,影响,，,进而,影响,玉米,的,产销,情况,，,导致,玉米,未来,价格,的,走势,发生,变化,，,因此,，,研究,这种,比价,关系,非常,重要,，,其中,，,玉米,与,大豆,的,种植,比价,关系,、,与,小麦,的,消费,比价,关系,最为,重要,。}</t>
-  </si>
-  <si>
-    <t>{n,p,r,nz,u,vn,n,v,p,n,u,n,v,vn,w,c,v,n,u,n,n,w,v,n,t,n,u,n,v,vn,w,c,w,v,r,n,n,d,a,w,r,w,n,c,n,u,vn,vn,n,w,p,n,u,vn,vn,n,d,a,w}</t>
-  </si>
-  <si>
-    <t>{大宗农产品}</t>
-  </si>
-  <si>
-    <t>{利率,变化,以及,汇率,波动,已,成为,各国,经济,生活,中,的,普遍,现象,，,而,这些,因素,的,变化,常,会引起,商品,期货,行情,波动,。,总的来说,，,当,货币贬值,时,，,玉米,期货,价格,会,上涨,；,当,货币,升值,时,，,期货,价格,会,下跌,。,因此,，,货币,的,利率,和,汇率,是,除了,供给,量,、,需求量,和,经济,周期,等,决定,玉米,期货,价格,的,主要,因素,之外,的,另,一,重要,最纳,因素,。}</t>
-  </si>
-  <si>
-    <t>{n,vn,c,n,vn,d,v,n,n,n,f,u,a,n,w,c,r,n,u,vn,d,v,n,n,n,vn,w,d,w,p,vn,n,w,n,n,n,v,v,w,p,n,v,n,w,n,n,v,v,w,c,w,n,u,n,c,n,v,p,vn,n,w,n,c,n,n,u,v,n,n,n,u,a,n,f,u,r,m,a,a,n,w}</t>
-  </si>
-  <si>
-    <t>{世界,经济,是,在,繁荣,与,衰退,周期,性交,替,中,不断,发展,的,，,经济,周期,是,现代,经济,社会,中,不可,避免,的,经济,波动,，,是,现代,经济,的,基本,特征,之,一,。,在,经济,周期,中,，,经济,活动,的,波动,发生,在,几乎,所有,的,经济,部门,。,因此,，,经济,周期,是,总体,经济,而,非,局部,经济,的,波动,。,衡量,总体,经济,状况,的,基本,指标,是,国民收入,，,经济,周期,也,就,表现,为,国民收入,的,波动,，,并,由此,而,发生,产量,、,就业,、,物价,水平,、,利率,等,的,波动,。,经济,周期,在,经济,的,运行,中,周而复始,地,反复,出现,，,一般,由,复苏,、,繁荣,、,衰退,和,萧条,四个,阶段,构成,。,受,此,影响,，,玉米,的,价格,也,会出现,相应,的,波动,，,从,宏观,面,进行,分析,，,经济,周期,是,非常,重要,的,影响,因素,之,一,。}</t>
-  </si>
-  <si>
-    <t>{n,n,v,p,an,c,vn,n,n,p,f,ad,v,u,w,n,n,v,t,n,n,f,v,v,u,n,vn,w,v,t,n,u,a,n,u,m,w,p,n,n,f,w,n,n,u,vn,v,p,d,r,u,n,n,w,c,w,n,n,v,n,n,c,v,n,n,u,vn,w,v,n,n,n,u,a,n,v,n,w,n,n,d,d,v,v,n,u,vn,w,c,d,c,v,n,w,vn,w,n,n,w,n,u,u,vn,w,n,n,p,n,u,vn,f,a,u,d,v,w,ad,p,v,w,a,w,v,c,an,m,n,v,w,v,r,vn,w,n,u,n,d,v,v,u,vn,w,p,n,n,v,vn,w,n,n,v,d,a,u,vn,n,u,m,w}</t>
-  </si>
-  <si>
-    <t>{影响,运输,成本,的,原油,、,海洋,运输,费率,、,运输,紧张,等,其他,因素,的,变化,，,会,对,玉米,价格,产生,影响,。}</t>
-  </si>
-  <si>
-    <t>{v,vn,n,u,n,w,n,vn,n,w,vn,an,u,r,n,u,vn,w,v,p,n,n,v,vn,w}</t>
-  </si>
-  <si>
-    <t>{豆粕,是,大豆,经过,提取,豆油,后,得到,的,一种,副产品,，,按照,提取,的,方法,不同,，,可以,分为,一,浸,豆粕,和,二,浸,豆粕,两种,。,其中,以,浸提法,提取,豆油,后,的,副产品,为,一,浸,豆粕,，,而,先,以,压榨,取,油,，,再,经过,浸,提取,油,后,所得,的,副产品,为,二,浸,豆粕,。,一,浸,豆粕,的,生产,工艺,较为,先进,，,蛋白质,含量,高,，,是,国内,目前,现货市场,上,流通,的,主要,品种,。,豆粕,一般,呈,不,规则,碎,片状,，,颜色,为,浅黄色,或,浅,褐色,，,味道,具有,烤,大豆,香味,。,豆粕,是,棉导,粕,、,花生粕,、,菜粕,等,12种,油,粕,饲料,产品,中,产量,最大,、,用途,最,广,的,一种,。,作为,一种,高蛋白质,原料,，,豆粕,不仅,是,用作,牲畜,与,家禽,饲料,的,主要,原料,，,还,可以,用于,制作,糕点,食品,、,健康,食品,以及,化妆品,，,此外,，,豆粕,还,作为,抗菌素,原料,使用,。,近些年,，,水产,养殖,对,豆粕,的,消费,需求,也,呈,快速,增长,态势,。,随着,科学技术,的,发展,，,豆粕,的,用途,将,打开,更大,的,空间,。,豆粕,作为,植物,蛋白,的,主要,来源,，,价格,波动,较大,，,产业,链条,长,，,参与,企业,多,，,影响,的,范围,广,，,这,使,企业,避险,和,投资,需求,都,较为,强烈,。,大连商品交易所,大豆,、,豆粕,、,豆油,品种,的,相继,推出,，,完善,了,大豆,品种,体系,，,形成,了,一个,完美,的,品种,套保,体系,，,为,相关,企业,提供,了,一个,使用方便,、,功能,齐全,的,风险,规避,场所,。}</t>
-  </si>
-  <si>
-    <t>{nz,v,n,p,v,nz,f,v,u,m,n,w,p,v,u,n,a,w,v,v,m,v,n,c,m,v,n,m,w,f,p,nz,v,nz,f,u,n,v,m,v,n,w,c,d,p,vn,v,n,w,d,v,v,v,n,f,v,u,n,v,m,v,n,w,d,v,n,u,vn,n,d,a,w,n,n,a,w,v,s,t,nz,f,v,u,a,n,w,n,ad,v,d,a,a,n,w,n,v,n,c,a,n,w,n,v,v,n,n,w,n,v,vn,n,w,n,w,n,u,m,n,v,n,n,f,n,a,w,n,d,a,u,m,w,p,m,nz,n,w,n,c,v,v,n,c,n,n,u,a,n,w,d,v,v,v,n,n,w,a,n,c,n,w,c,w,n,d,v,nz,n,v,w,t,w,n,vn,p,n,u,vn,n,d,v,ad,v,n,w,p,n,u,vn,w,n,u,n,d,v,a,u,n,w,n,p,n,n,u,a,n,w,n,vn,a,w,n,n,a,w,v,n,a,w,vn,u,n,a,w,r,v,n,v,c,vn,n,d,d,a,w,",n,w,n,w,nz,n,u,d,v,w,v,u,n,n,n,w,v,u,m,a,u,n,vn,n,w,p,vn,n,v,u,m,a,w,n,a,u,n,vn,n,w}</t>
-  </si>
-  <si>
-    <t>{大连商品交易所}</t>
-  </si>
-  <si>
-    <t>{豆粕,豆油,浸提法,现货市场,高蛋白质,抗菌素}</t>
-  </si>
-  <si>
-    <t>{美国,、,巴西,、,阿根廷,、,中国,、,印度,、,欧盟,等,国,是,世界,主要,的,豆粕,生产,地区,，,目前,，,中国,豆粕,产量,已,占,全球,29%6,以上,的,份额,。,近几年,，,中国,压榨,行业,快速,发展,，,中国,豆粕,的,发展,速度,保持,了,约,896,的,年,平均,增长速度,。,我,国,是,豆粕,的,生产,大国,。,2000年起,，,我,国,豆粕,的,年,产量,首次,突破,1,，,500万吨,，,2001年后,，,豆粕,产量,出现,持续,快速,增长,趋势,。,2009年,豆粕,产量,超过,美国,，,居,世界,第一位,。,在,国内,豆粕,产量,迅猛,发展,的,同时,，,我,国,豆粕,生产,布局,也,发生,了,根本性,的,转变,，,90年代中期,以前,东北三省,是,我,国,豆粕,主要,生产基地,，,产量,约,占,全国,60%,以上,，,而,到,2002年以后,，,随着,沿海地区,压榨,企业,的,快速,发展,，,山东,、,江苏,、,广东,等,沿海地区,已,取代,东北地区,成为,我,国,主要,的,豆粕,生产基地,。}</t>
-  </si>
-  <si>
-    <t>{",w,",w,",w,",w,",w,",u,n,v,n,a,u,nz,vn,n,w,t,w,",n,n,d,v,n,m,f,u,n,w,",w,",vn,n,ad,v,w,",n,u,vn,n,v,u,d,m,u,n,a,n,w,r,n,v,n,u,vn,n,w,",w,r,n,n,u,n,n,m,v,m,w,m,w,",w,n,n,v,vd,ad,v,n,w,",n,n,v,",w,v,n,m,w,p,s,n,n,ad,v,u,n,w,r,n,nz,vn,n,d,v,u,n,u,vn,w,",f,",v,r,n,n,a,n,w,n,d,v,n,m,f,w,c,v,",w,p,s,v,n,u,a,vn,w,",w,",w,",u,n,d,v,",v,r,n,a,u,nz,n,w}</t>
-  </si>
-  <si>
-    <t>{美国,巴西,阿根廷,中国,印度,欧盟,中国,近几年,中国,中国,2000年起,2001年后,2009年,美国,90年代中期,东北三省,2002年以后,山东,江苏,广东,东北地区}</t>
-  </si>
-  <si>
-    <t>{豆粕}</t>
-  </si>
-  <si>
-    <t>{近几年,来,，,世界,豆粕,消费,呈现,跳跃性,的,增长,。,2018,/,19年,世界,豆粕,消费量,预计,为,23451万吨,。,目前,，,豆粕,消费,占,世界,蛋白,粕,总,消费量,的,60%,以上,。,2008年前,，,欧盟,一直,是,全球,最大,的,消费,国,，,近几年,，,欧盟,的,豆粕,需求量,维持,在,3000万吨,左右,的,规模,。,中国,2008/09年,的,豆粕,消费量,超过,欧盟,成为,世界,最大,豆粕,消费,地区,。,到,2018,/,19年,豆粕,消费量,已,达到,6882万吨,。,2004年以后,，,东亚,国家,如,中国,、,韩国,、,日本,以及,东南亚,各国,的,豆粕,消费量,呈现,迅猛,增长,的,态势,，,这,在,很大,程度,上,拉动,了,全球,消费,。,随着,人民,生活水平,的,提高,，,我,国,城乡,居民,对,肉蛋禽,鱼,等,食品,的,摄取,量,大幅,增加,，,促进,了,饲料,加工业,的,迅猛,发展,。,家禽,、,优质,瘦肉型,猪,所用,饲料,迅速,增加,，,刺激,了,对,优质,蛋白,饲料,的,需求,。,我,国,饼舶类,产品,很多,，,菜籽粕,和,棉籽饼,的,产量,也,很大,，,但,这,两种,讲,舶,都,要,经过,脱毒,后,才能,用于,饲料,，,因此,，,目前,国内,使用,的,优质粕,主要,是,大,豆粕,。,从,地区,分布,来看,，,珠江三角洲,和,长江流域,地区,是,目前,我,国,豆粕,的,主要,消费,地,。,从,具体,省市,来看,，,豆粕,消费,主要,集中,在,广东,、,四川,、,江苏,、,湖南,、,浙江,、,江西,、,安徽,、,湖北,、,福建,、,北京,和,上海,等,省市,。}</t>
-  </si>
-  <si>
-    <t>{",v,w,n,n,vn,v,n,u,vn,w,m,w,",n,n,n,v,v,m,w,t,w,nz,vn,v,n,n,v,a,n,u,m,f,w,",w,nt,d,v,n,a,u,vn,n,w,",w,nt,u,n,n,v,p,m,f,u,n,w,",t,u,n,n,v,nt,v,n,a,n,vn,n,w,v,m,w,",n,n,d,v,m,w,",w,",n,v,",w,",w,",c,",n,u,n,n,v,ad,v,u,n,w,r,p,a,n,f,v,u,n,vn,w,p,n,n,u,vn,w,r,n,n,n,p,n,n,u,n,u,vn,n,d,v,w,v,u,n,n,u,a,vn,w,n,w,a,a,n,v,n,ad,v,w,v,u,p,a,n,n,u,n,w,r,n,n,n,a,w,nz,c,nz,u,n,d,a,w,c,r,m,v,n,d,v,v,v,f,v,v,n,w,c,w,t,s,v,u,n,ad,v,a,n,w,p,n,vn,v,w,",c,ns,n,v,t,r,n,n,u,a,vn,n,w,p,a,n,v,w,n,vn,ad,v,p,",w,",w,",w,",w,",w,",w,",w,",w,",w,",c,",u,n,w}</t>
-  </si>
-  <si>
-    <t>{近几年,19年,2008年前,近几年,中国,19年,2004年以后,东亚,中国,韩国,日本,东南亚,珠江三角洲,广东,四川,江苏,湖南,浙江,江西,安徽,湖北,福建,北京,上海}</t>
-  </si>
-  <si>
-    <t>{豆粕,菜籽粕,棉籽饼}</t>
-  </si>
-  <si>
-    <t>{目前,世界,豆粕,主要,出口,国,为,阿根廷,、,巴西,、,美国,、,印度,等,国家,。,其中,，,阿根廷,和,巴西,一直,占,世界,豆粕,出口,量,之,首,。,2018,/,19年,，,阿根廷,和,巴西,两国,的,豆粕,出口,量,占,到,全球,总,出口,量,的,67%,，,美国,约,占,18%,，,印度,的,豆粕,出口,主要,面向,东南亚,等,地区,，,由于,内需,增长,迅猛,，,预计,出口,总量,占,全球,总量,的,2.7%,，,去年,为,2.899%,。,自,90年代中期,以来,，,我,国,豆粕,的,产,需,状况,发生,了,显著,变化,，,1994年以前,，,中国,是,豆粕,出口,大国,，,其,年,出口,量,一般,都,超过,100万吨,。,但,其后,几年,国内市场,对,豆粕,的,强劲,需求,及,国内,榨油,用,大豆,的,减少,，,导致,国内,豆粕,生产,远,不能,满足,消费,需求,，,转,而,变成,了,主要,豆粕,进口,国, ",1997,/,98,年度,，,中国,豆,k,进口,400万吨,。,从,1999年,开始,，,随着,国内,压榨,企业,不断,扩大,生产,规模,，,我,国,大量,进口,大豆,用于,压榨,，,国产,豆粕,才,得以,满足,快速,膨胀,的,消费,需求,。}"</t>
-  </si>
-  <si>
-    <t>{t,n,n,a,vn,n,v,",w,",w,",w,",u,n,w,f,w,",c,",d,v,n,n,vn,n,u,n,w,m,w,",w,",c,",n,u,nz,vn,n,v,v,n,a,vn,n,u,m,w,",d,v,m,w,",u,n,vn,ad,v,",u,n,w,p,n,v,a,w,v,vn,n,v,n,n,u,m,w,",v,m,w,p,",f,w,r,n,n,u,vn,v,n,v,u,a,vn,w,",w,",v,nz,vn,n,w,r,q,vn,n,ad,d,v,m,w,c,f,m,n,p,n,u,a,n,c,s,v,p,n,u,vn,w,v,s,nz,vn,ad,v,v,vn,n,w,c,c,v,u,a,n,vn,n,w,t,w,m,n,w,",n,xc,v,m,w,p,",v,w,p,s,vn,n,ad,v,vn,n,w,r,n,a,vn,n,v,vn,w,a,n,d,v,v,ad,v,u,vn,n,w}</t>
-  </si>
-  <si>
-    <t>{阿根廷,巴西,美国,印度,阿根廷,巴西,19年,阿根廷,巴西,美国,印度,东南亚,去年,90年代中期,1994年以前,中国,中国,1999年}</t>
-  </si>
-  <si>
-    <t>{豆粕,作为,大豆,加工,的,副产品,，,大豆,供应量,的,多少,直接,决定,着,豆粕,的,供应量,，,正常,情况,下,，,大豆,供应量,的,增加,必然,导致,豆粕,供应量,的,增加,。,大豆,的,来源,主要,有,两块,，,一,是,国产,大豆,，,二,是,进口,大豆,。,我,国,的,东北,及,黄淮地区,是,大豆,的,主产区,，,近几年,，,我,国,大豆,年,总产量,在,1,，,500万吨,左右,徘徊,，,其中,商品,大豆,量,约,为,600万吨,。,我,国,2018,/,19年,进口,大豆,将,达到,9080万吨,。}</t>
-  </si>
-  <si>
-    <t>{n,p,n,vn,u,n,w,n,n,u,r,ad,v,u,n,u,n,w,a,n,f,w,n,n,u,vn,d,v,n,n,u,vn,w,n,u,n,ad,v,m,w,m,v,a,n,w,m,v,vn,n,w,r,n,u,",c,",v,n,u,n,w,",w,r,n,n,n,n,p,m,w,m,f,v,w,f,n,n,n,d,v,m,w,r,n,m,w,",vn,n,d,v,m,w}</t>
-  </si>
-  <si>
-    <t>{东北,黄淮地区,近几年,19年}</t>
-  </si>
-  <si>
-    <t>{大豆,价格,的,高低,直接,影响,豆粕,生产,的,成本,，,近几年,，,我,国,许多,大型,压,检,企业,选择,进口,大豆,作为,加工,原料,，,进口,大豆,价格,对,我,国,豆粕,价格,的,影响,更为,明显,。}</t>
-  </si>
-  <si>
-    <t>{n,n,u,n,ad,v,nz,vn,u,n,w,",w,r,n,m,a,vn,vn,n,v,vn,n,v,vn,n,w,vn,n,n,p,r,n,n,n,u,vn,d,a,w}</t>
-  </si>
-  <si>
-    <t>{近几年}</t>
-  </si>
-  <si>
-    <t>{豆粕,当期,产量,是,一个,变量,，,它,受制,于,大豆,供应量,、,大豆,压榨,收益,、,生产成本,等,因素,。,一般,来讲,，,豆粕,产量,与,豆粕,价格,之间,存在,反向,关系,，,豆粕,产量,越,大,，,价格,相对,较,低,；,相反,，,豆,箱,产量,减少,，,豆粕,价格,则,上涨,。}</t>
-  </si>
-  <si>
-    <t>{n,t,n,v,m,n,w,r,v,p,n,n,w,n,vn,n,w,n,u,n,w,ad,v,w,n,n,p,n,n,f,v,n,n,w,n,n,d,a,w,n,d,d,a,w,d,w,n,n,n,v,w,n,n,d,v,w}</t>
-  </si>
-  <si>
-    <t>{豆粕,库存,是,构成,总产量,的,重要,部分,，,前期,库存量,的,多少,体现,着,供应量,的,紧张,程度,。,供应,短缺,则,价格,上涨,，,供应,充裕,则,价格,下降,。,由于,豆粕,具有,不易,保存,的,特点,，,一旦,豆粕,库存,增加,，,豆粕,的,价格,往往,会,调低,。}</t>
-  </si>
-  <si>
-    <t>{nz,n,v,v,n,u,a,n,w,t,n,u,r,v,u,n,u,a,n,w,vn,vn,c,n,v,w,vn,a,c,n,v,w,p,n,v,ad,v,u,n,w,d,n,n,v,w,nz,u,n,d,v,v,w}</t>
-  </si>
-  <si>
-    <t>{我,国,是,豆粕,消费,大国,，,近几年,，,豆粕,消费,保持,了,89%,以上,的,年,增长速度,。,豆粕,在,饲料业,中,家禽,的,使用,量,占,526,，,所以,牲畜,、,家禽,价格,的,影响,直接,构成,对,饲料,需求,的,影响,。,正常,情况,下,，,牲斋,、,家禽,的,价格,与,豆粕,价格,之间,存在,明显,的,正,相关,。,统计,显示,，,90%,以上,的,豆粕,消费,是,用于,各类,饲料,，,所以,饲料,行业,景气度,状况,对,豆粕,需求,的,影响,非常,明显,。}</t>
-  </si>
-  <si>
-    <t>{r,n,v,nz,vn,n,w,",w,nz,vn,v,u,m,f,u,n,n,w,n,p,n,f,n,u,vn,n,v,m,w,c,n,w,n,n,u,vn,ad,v,p,n,n,u,vn,w,a,n,f,w,nr,w,n,u,n,p,n,n,f,v,a,u,d,v,w,vn,v,w,m,f,u,nz,vn,v,v,r,n,w,c,n,n,n,n,p,n,n,u,vn,d,a,w}</t>
-  </si>
-  <si>
-    <t>{豆粕,是,大豆,的,副产品,，,每,1吨,大豆,可以,压榨,出,大约,0.18吨,的,豆油,和,0.8吨,的,豆粕,，,豆粕,的,价格,与,大豆,的,价格,有,密切,的,关系,，,一般,来讲,，,每年,大豆,的,产量,都会,影响,到,豆,舶,的,价格,，,大豆,丰收,则,豆粕,价,跌,，,大豆,欠收,则,豆粕,就会,涨价,。,同时,，,豆油,与,豆粕,之间,也,存在,一定,程度,的,关联,，,豆油,价,好,，,豆粕,就会,价,跌,，,豆油,滞销,，,豆粕,产量,就,将,减少,，,豆粕,价格,将,上涨,。,大豆,压榨,效益,是,决定,豆粕,供应量,的,重要,因素,之,一,，,如果,油脂厂,的,压榨,效益,一直,低迷,，,那么,，,一些,厂家,会,停产,，,从而,减少,豆粕,的,市场,供应量,。}</t>
-  </si>
-  <si>
-    <t>{nz,v,n,u,n,w,r,m,n,v,v,v,d,m,u,nz,c,m,u,n,w,n,u,n,p,n,u,n,v,a,u,n,w,ad,v,w,",n,u,n,v,v,v,n,v,u,n,w,n,vn,c,n,n,v,w,n,a,c,n,v,v,w,d,w,nz,c,n,f,d,v,a,n,u,vn,w,nz,n,a,w,n,v,n,v,w,nz,v,w,n,n,d,d,v,w,n,n,d,v,w,n,vn,n,v,v,nz,n,u,a,n,u,m,w,c,n,u,vn,n,d,a,w,c,w,m,n,v,v,w,c,v,n,u,n,n,w}</t>
-  </si>
-  <si>
-    <t>{每年}</t>
-  </si>
-  <si>
-    <t>{豆粕,豆油}</t>
-  </si>
-  <si>
-    <t>{除了,大豆,、,豆油,等,相关,商品,对,豆,柏,价格,影响,外,，,棉籽粕,、,花生粕,、,菜柏,等,豆粕,的,替代品,对,豆粕,价格,也有,一定,影响,，,如果,豆粕,价格,高企,，,饲料,企业,往往,会,考虑,增加,使用,菜粕,等,替代品,。}</t>
-  </si>
-  <si>
-    <t>{p,n,w,nz,u,vn,n,p,n,n,n,vn,f,w,nz,w,n,w,n,u,n,u,n,p,n,n,v,a,vn,w,c,n,n,v,w,n,n,d,v,v,v,v,n,u,n,w}</t>
-  </si>
-  <si>
-    <t>{豆油,棉籽粕}</t>
-  </si>
-  <si>
-    <t>{近几年,，,禽流感,、,疯牛病,及,口蹄疫,的,相继,发生,以及,出于,转基因食品,对,人体,健康,影响,的,考虑,，,越来,越多,的,国家,实施,了,新,的,食品,政策,。,这些,新,食品,政策,的,实施,，,对,养殖业,及,豆粕,的,需求,影响,都是,非常,直接,的,。}</t>
-  </si>
-  <si>
-    <t>{",w,n,w,nz,c,n,u,d,v,c,v,nz,p,n,an,vn,u,vn,w,d,a,u,n,v,u,a,u,n,n,w,r,a,n,n,u,vn,w,p,n,c,n,u,n,vn,v,d,a,u,w}</t>
-  </si>
-  <si>
-    <t>{疯牛病,转基因食品}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -500,6 +761,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -509,7 +776,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -517,12 +784,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -813,28 +1098,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -842,25 +1127,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -868,25 +1153,25 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -894,25 +1179,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -920,25 +1205,25 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -946,25 +1231,25 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
         <v>33</v>
       </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>77</v>
-      </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="G6" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="H6" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -972,25 +1257,25 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G7" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="H7" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -998,25 +1283,25 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="G8" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1024,25 +1309,25 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="E9" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="F9" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="G9" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="H9" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1050,25 +1335,25 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="F10" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="G10" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="H10" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1076,25 +1361,25 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="F11" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="G11" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="H11" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1102,25 +1387,25 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="F12" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="G12" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="H12" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1128,25 +1413,25 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="E13" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="F13" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="G13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" t="s">
         <v>70</v>
-      </c>
-      <c r="H13" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1154,25 +1439,25 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="E14" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="F14" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="G14" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="H14" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1180,25 +1465,25 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="E15" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="F15" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="G15" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="H15" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1206,25 +1491,25 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="E16" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="F16" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="G16" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="H16" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1232,25 +1517,25 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="C17" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="E17" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="F17" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="G17" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="H17" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1258,25 +1543,25 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="E18" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="F18" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="G18" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="H18" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1284,25 +1569,25 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="E19" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="F19" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="G19" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="H19" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1310,25 +1595,25 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="D20" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="E20" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F20" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="G20" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="H20" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1336,25 +1621,25 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>106</v>
       </c>
       <c r="D21" t="s">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="E21" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F21" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="G21" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="H21" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1362,25 +1647,25 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="D22" t="s">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="E22" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="F22" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="G22" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="H22" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1388,25 +1673,25 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="D23" t="s">
-        <v>46</v>
+        <v>117</v>
       </c>
       <c r="E23" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="F23" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="G23" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="H23" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1414,25 +1699,25 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>120</v>
       </c>
       <c r="D24" t="s">
-        <v>48</v>
+        <v>121</v>
       </c>
       <c r="E24" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F24" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="G24" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="H24" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1440,25 +1725,25 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="D25" t="s">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="E25" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F25" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="G25" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="H25" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1466,25 +1751,25 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>128</v>
       </c>
       <c r="D26" t="s">
-        <v>52</v>
+        <v>129</v>
       </c>
       <c r="E26" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F26" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G26" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H26" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1492,25 +1777,25 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>134</v>
       </c>
       <c r="D27" t="s">
-        <v>54</v>
+        <v>135</v>
       </c>
       <c r="E27" t="s">
+        <v>136</v>
+      </c>
+      <c r="F27" t="s">
+        <v>137</v>
+      </c>
+      <c r="G27" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" t="s">
         <v>138</v>
-      </c>
-      <c r="F27" t="s">
-        <v>139</v>
-      </c>
-      <c r="G27" t="s">
-        <v>70</v>
-      </c>
-      <c r="H27" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1518,13 +1803,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
+        <v>139</v>
       </c>
       <c r="D28" t="s">
-        <v>56</v>
+        <v>140</v>
       </c>
       <c r="E28" t="s">
         <v>141</v>
@@ -1533,7 +1818,7 @@
         <v>142</v>
       </c>
       <c r="G28" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="H28" t="s">
         <v>143</v>
@@ -1546,10 +1831,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E30F2B6-2D17-4683-A4DA-A636775BC67B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -1557,28 +1842,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1586,25 +1871,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1612,25 +1897,25 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1638,25 +1923,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1664,25 +1949,25 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1690,25 +1975,25 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
         <v>33</v>
       </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>77</v>
-      </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="G6" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="H6" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1716,25 +2001,25 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G7" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="H7" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1742,25 +2027,25 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="G8" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1768,25 +2053,25 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="E9" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="F9" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="G9" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="H9" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1794,25 +2079,25 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="F10" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="G10" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="H10" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1820,25 +2105,25 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="F11" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="G11" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="H11" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1846,25 +2131,25 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="F12" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="G12" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="H12" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1872,25 +2157,25 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="E13" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="F13" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="G13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" t="s">
         <v>70</v>
-      </c>
-      <c r="H13" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1898,25 +2183,25 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="E14" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="F14" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="G14" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="H14" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1924,25 +2209,25 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="E15" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="F15" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="G15" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="H15" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1950,25 +2235,25 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="E16" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="F16" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="G16" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="H16" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1976,25 +2261,25 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="C17" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="E17" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="F17" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="G17" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="H17" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -2002,25 +2287,25 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="E18" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="F18" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="G18" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="H18" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -2028,25 +2313,25 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="E19" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="F19" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="G19" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="H19" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -2054,25 +2339,25 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="D20" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="E20" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F20" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="G20" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="H20" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2080,25 +2365,25 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>106</v>
       </c>
       <c r="D21" t="s">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="E21" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F21" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="G21" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="H21" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -2106,25 +2391,25 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="D22" t="s">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="E22" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="F22" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="G22" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="H22" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2132,25 +2417,25 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="D23" t="s">
-        <v>46</v>
+        <v>117</v>
       </c>
       <c r="E23" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="F23" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="G23" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="H23" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -2158,25 +2443,25 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>120</v>
       </c>
       <c r="D24" t="s">
-        <v>48</v>
+        <v>121</v>
       </c>
       <c r="E24" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F24" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="G24" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="H24" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -2184,25 +2469,25 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="D25" t="s">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="E25" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F25" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="G25" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="H25" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -2210,25 +2495,25 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>128</v>
       </c>
       <c r="D26" t="s">
-        <v>52</v>
+        <v>129</v>
       </c>
       <c r="E26" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F26" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G26" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H26" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -2236,25 +2521,25 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>134</v>
       </c>
       <c r="D27" t="s">
-        <v>54</v>
+        <v>135</v>
       </c>
       <c r="E27" t="s">
+        <v>136</v>
+      </c>
+      <c r="F27" t="s">
+        <v>137</v>
+      </c>
+      <c r="G27" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" t="s">
         <v>138</v>
-      </c>
-      <c r="F27" t="s">
-        <v>139</v>
-      </c>
-      <c r="G27" t="s">
-        <v>70</v>
-      </c>
-      <c r="H27" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -2262,13 +2547,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
+        <v>139</v>
       </c>
       <c r="D28" t="s">
-        <v>56</v>
+        <v>140</v>
       </c>
       <c r="E28" t="s">
         <v>141</v>
@@ -2277,7 +2562,7 @@
         <v>142</v>
       </c>
       <c r="G28" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="H28" t="s">
         <v>143</v>
@@ -2287,4 +2572,536 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:F28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" t="s">
+        <v>153</v>
+      </c>
+      <c r="F5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E6" t="s">
+        <v>206</v>
+      </c>
+      <c r="F6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D7" t="s">
+        <v>157</v>
+      </c>
+      <c r="E7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D8" t="s">
+        <v>159</v>
+      </c>
+      <c r="E8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
+        <v>160</v>
+      </c>
+      <c r="D9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E9" t="s">
+        <v>212</v>
+      </c>
+      <c r="F9" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D10" t="s">
+        <v>163</v>
+      </c>
+      <c r="E10" t="s">
+        <v>214</v>
+      </c>
+      <c r="F10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D11" t="s">
+        <v>165</v>
+      </c>
+      <c r="F11" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D12" t="s">
+        <v>167</v>
+      </c>
+      <c r="F12" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D13" t="s">
+        <v>169</v>
+      </c>
+      <c r="F13" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" t="s">
+        <v>170</v>
+      </c>
+      <c r="D14" t="s">
+        <v>171</v>
+      </c>
+      <c r="F14" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" t="s">
+        <v>172</v>
+      </c>
+      <c r="D15" t="s">
+        <v>173</v>
+      </c>
+      <c r="F15" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" t="s">
+        <v>174</v>
+      </c>
+      <c r="D16" t="s">
+        <v>175</v>
+      </c>
+      <c r="F16" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" t="s">
+        <v>176</v>
+      </c>
+      <c r="D17" t="s">
+        <v>177</v>
+      </c>
+      <c r="E17" t="s">
+        <v>222</v>
+      </c>
+      <c r="F17" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" t="s">
+        <v>178</v>
+      </c>
+      <c r="D18" t="s">
+        <v>179</v>
+      </c>
+      <c r="E18" t="s">
+        <v>224</v>
+      </c>
+      <c r="F18" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" t="s">
+        <v>180</v>
+      </c>
+      <c r="D19" t="s">
+        <v>181</v>
+      </c>
+      <c r="E19" t="s">
+        <v>226</v>
+      </c>
+      <c r="F19" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" t="s">
+        <v>182</v>
+      </c>
+      <c r="D20" t="s">
+        <v>183</v>
+      </c>
+      <c r="E20" t="s">
+        <v>228</v>
+      </c>
+      <c r="F20" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" t="s">
+        <v>184</v>
+      </c>
+      <c r="D21" t="s">
+        <v>185</v>
+      </c>
+      <c r="F21" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" t="s">
+        <v>186</v>
+      </c>
+      <c r="D22" t="s">
+        <v>187</v>
+      </c>
+      <c r="F22" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>117</v>
+      </c>
+      <c r="C23" t="s">
+        <v>188</v>
+      </c>
+      <c r="D23" t="s">
+        <v>189</v>
+      </c>
+      <c r="F23" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" t="s">
+        <v>190</v>
+      </c>
+      <c r="D24" t="s">
+        <v>191</v>
+      </c>
+      <c r="F24" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" t="s">
+        <v>192</v>
+      </c>
+      <c r="D25" t="s">
+        <v>193</v>
+      </c>
+      <c r="F25" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26" t="s">
+        <v>194</v>
+      </c>
+      <c r="D26" t="s">
+        <v>195</v>
+      </c>
+      <c r="F26" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27" t="s">
+        <v>196</v>
+      </c>
+      <c r="D27" t="s">
+        <v>197</v>
+      </c>
+      <c r="F27" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>140</v>
+      </c>
+      <c r="C28" t="s">
+        <v>198</v>
+      </c>
+      <c r="D28" t="s">
+        <v>199</v>
+      </c>
+      <c r="F28" t="s">
+        <v>237</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>